--- a/xlsx格式测试工作簿.xlsx
+++ b/xlsx格式测试工作簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haoze\Documents\GitHub\paperDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB645D50-B7F8-4CA4-803A-DDA5D1464E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C289E9B-1FDA-48E0-8C0A-1ECC9D7BC352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="5865" windowWidth="15285" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xlsx格式测试表" sheetId="1" r:id="rId1"/>
@@ -20,210 +20,1272 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
-  <si>
-    <t>http://www.cnki.com.cn/Article/CJFDTotal-ZGMH201802003.htm</t>
-  </si>
-  <si>
-    <t>基于数据融合的航空发动机排气温度测量</t>
-  </si>
-  <si>
-    <t>雷伟 - 中国民航大学学报, 2018 - cnki.com.cn</t>
-  </si>
-  <si>
-    <t>针对某型飞机发动机排气温度测量采用传感器配置不合理, 算法存在局限性, 不能对故障传感器进行有效识别等问题, 对传感器重新布局设计, 通过小波变换对数据进行预处理, 去除其中的噪声因素, 利用多传感器数据融合技术进行深入优化, 并检验了在传感器故障 …</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=Ph2U0UGdttEcMxEZo9UUvIkYCJXOHdVN010a4lVdIp2KIFTNEdVOO1GUQp2Y5dUZ5xGdoxkSllHeCZWSUZjRw1mQ2t0b3E0UxcDbk12QXNTUERmZBZHU5kFRZl3NzcUVGV3V1AFUx9GTBVlWvkTThtUNrJnSpV3a&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>针对某型飞机发动机排气温度测量采用传感器配置不合理、算法存在局限性,不能对故障传感器进行有效识别等问题,对传感器重新布局设计,通过小波变换对数据进行预处理,去除其中的噪声因素,利用多传感器数据融合技术进行深入优化,并检验了在传感器故障情况下各算法的辨识性。最后通过实验对5种算法进行对比分析,结果表明基于数据融合的处理方法具有更高的精确度和故障识别能力。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="364">
+  <si>
+    <t>http://journal19.magtechjournal.com/Jwk3_xtfzxb/CN/abstract/abstract1610.shtml</t>
+  </si>
+  <si>
+    <t>一种基于 HBase 的智能电网时序大数据处理方法</t>
+  </si>
+  <si>
+    <t>王远， 陶烨， 袁军， 何卫 - 系统仿真学报, 2016 - journal19.magtechjournal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 问题： 1) 数据存储孤立分离。按照实体关系模型， 一条时序数据记录被保存为单独的一行，
+因此连续 时间段内的数据被孤立分离地存储在数据库中。在 大数据时代下，时序数据
+的数据量超出想象，若采 Page 3. 第28 卷第3 期 Vol. 28 No. 3 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=Xbq1EcOBDNKdWbHdjMaFHUTdVaWFXN2xEamV0RUJmbzZESxBFeIh0RrgVM2FHe2MWcIVkUIR2ZF50Y=0zcBNjMtFkd6RWZ1FlbO1mYndFZDN1SBhVWqFUeXF1LCtGe6JWRQN3MKB1bwk2clhWSMF0LvNENmZ&amp;tablename=CJFDLAST2016&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>一种基于HBase的智能电网时序大数据处理方法</t>
+  </si>
+  <si>
+    <t>随着物联网关键技术与理论的发展,物联网应用受到了越来越多的关注。智能电网是一类典型的物联网应用,遍布全网的传感器收集及产生了大量反映关键设备运行状态的时序数据。如何利用时序数据确保智能电网的安全以及稳定运行是当前的研究热点之一。针对智能电网时序数据设备多、数据规模大、产生速度快等特点,提出了一种基于HBase的海量时序数据存储处理方法,着重介绍了如何利用策略驱动技术实现时序数据的灵活存储与处理。通过构建HBase集群,验证了该方法的有效性。</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>http://cdmd.cnki.com.cn/Article/CDMD-10406-1019654478.htm</t>
-  </si>
-  <si>
-    <t>航空发动机齿轮磨削烧伤电磁无损检测技术研究</t>
-  </si>
-  <si>
-    <t>黄栋 - 2019 - cdmd.cnki.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 黄栋. 【摘要】：齿轮是航空发动机传动系统的核心构件。其表面层质量直接影响发动机的功能和使用 …
-磨削烧伤组织的电磁特性基础上,分别研究涡流、漏磁和巴克豪森检测磨削烧伤检测的优缺点和
-磨削烧伤的检出率,针对存在的问题,提出涡流、漏磁和巴克豪森检测数据融合提高检出率的 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=zV0dkY2dEWOJXY6V1Zpx2TEpmVaJGNB9We202MKZHZ5QkcypFaCdVTalGe4cVWVtSdhdlTGlkcrVlb=0zbhdmdPpUet1GN0ZkYCtyVs1mNwgFdtpHU4oWWuRmRSh2MxUkWYBnNV52Q4kHM4F2VWdXTKh2U5d&amp;tablename=CMFD201902&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>齿轮是航空发动机传动系统的核心构件。其表面层质量直接影响发动机的功能和使用寿命。齿轮的磨削加工中,磨粒的切削、刻划和滑擦作用可能导致齿轮产生磨削烧伤,产生如耐腐蚀、耐磨和抗疲劳强度等性能退化,严重烧伤时还会萌生裂纹造成断齿等严重事故,严重影响飞机的飞行安全。工厂通常采用酸蚀法对齿轮磨削烧伤检测,这种方法不仅受操作者影响因素大,精度低,更不利的是对齿轮有一定的微损伤和可能导致氢脆,因此,开发一种能快速检测和评价齿轮表面磨削损伤的无损检测方法显得尤其重要。在研究了齿轮磨削烧伤形成因素,磨削烧伤组织的电磁特性基础上,分别研究涡流、漏磁和巴克豪森检测磨削烧伤检测的优缺点和磨削烧伤的检出率,针对存在的问题,提出涡流、漏磁和巴克豪森检测数据融合提高检出率的方法,在设计和制作涡流、漏磁和巴克豪森齿轮综合检测系统和编制相应的数据采集和分析软件基础上,采用三种电磁检测信号进行归一化处理算法并进行归一化处理,对11个(946个齿面)齿轮研究分析结果表明:由于磨削烧伤部位磁导率减低,使得涡流信号中的相位角度降低,磨削烧伤部位和磨削烧伤部位的磁导率差增加,使得泄露磁场强度增加,磨削烧伤部位磁畴钉扎作用强,磁畴偏转伴随的噪声强度提高,巴克豪森噪声电压的均方根值增加,因此涡流、漏磁、巴克豪森方法均可以用于磨削烧伤检测,单参数检测时,利用的磨削烧伤部位的磁特性参数不同,磨削烧伤的检出率不能满足工程实际的高可靠性的要求,本文提出综合利用磨削烧伤部位的磁特性参数的数据融合方法,在归一化处理涡流检测、漏磁检测、巴克豪森检测参数后,对三种参数进行K均值聚类、马氏距离判别、BP神经网络数据融合,融合结果为:K均值聚类融合磨削烧伤的判断准确率97.25%,马氏距离判别融合磨削烧伤的判断准确率90.54%,BP神经网络数据融合判断准确率94.52%,均高于单参数检测的检出率,其中K均值聚类融合效果最好。本文综合巴克豪森、涡流、漏磁检测三种电磁无损检测方法,应用基于机器学习的数据分析方法,给出评判算法并进行验证,将传统的对产品检测上升到评估层面,为齿轮磨削烧伤无损检测提供了一种新思路。</t>
-  </si>
-  <si>
-    <t>http://www.cqvip.com/qk/93137x/201704/672630880.html</t>
-  </si>
-  <si>
-    <t>多传感器数据融合方法在加力燃烧室试验中的应用研究</t>
-  </si>
-  <si>
-    <t>王日先， 王宏宇， 孙永飞， 张天一， 张鹏淼 - 航空发动机, 2017 - cqvip.com</t>
-  </si>
-  <si>
-    <t>在航空发动机加力燃烧室试验中, 为实现同一截面真实气流状态参数的多传感器精确测量, 提出了1 种多传感器数据融合方法. 该方法运用格拉布斯准则剔除多传感器测量数据中的无效数据, 运用方差自适应加权融合方法对有效数据进行融合计算并获取真实参数 …</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=ldXplNRlkbMVzYHhGORFUN0RGeKBVbWlFVaNHelVTb2hXNLlUMiV1RBxmd6RGb5V2d1oGa0d1QDNEb=0zclN1NKhVWyQFN65WZO5EdzJXZodHSsZnUJBlM0MUNlZTe2cXWmFTNOJGb3djTzkGONV0NxRnQGR&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>在航空发动机加力燃烧室试验中,为实现同一截面真实气流状态参数的多传感器精确测量,提出了1种多传感器数据融合方法。该方法运用格拉布斯准则剔除多传感器测量数据中的无效数据,运用方差自适应加权融合方法对有效数据进行融合计算并获取真实参数,并分别利用算术平均值方法和自适应加权融合方法对试验数据进行处理分析。结果表明:通过多传感器融合方法获取的数据均方差明显优于算术平均值方法获取的方差,具有更高的测试精度和可靠性。</t>
-  </si>
-  <si>
-    <t>http://html.rhhz.net/BJHKHTDXXBZRB/20180325.htm</t>
-  </si>
-  <si>
-    <t>基于深度学习的航空发动机故障融合诊断</t>
-  </si>
-  <si>
-    <t>车畅畅， 王华伟， 倪晓梅， 洪骥宇 - 2018 - html.rhhz.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 和决策融合算法的基础上，提出了基于深度学习的航空发动机故障融合诊断方法，把航空发动机的
-性能参数和故障类型样本输入到深度信念网络(DBN)模型中，提取出样本特征，从而输出故障分类
-数据，然后把输出数据代入到决策融合算法模型中进行决策融合，得出航空发动机故障融合 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=WVyd2S2M2LsdGU2FVN1N0Q2cHZ1NHOBZXZTlGe4dlehV1ZiNzSHhkWaNGNHJ1LMp1ahhXbox2b2dWU=0TT4BTb1c3QBhFaDJlS0VETwRHN6JUSF9SRW1GZF9WZ6NUbjl3QFF0SOpkbVpEU1gzaCJjStV3Yhd&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>通过对航空发动机故障诊断,能够正确判断各部件工作状态,快速确定维修方案,保证飞行安全。在结合深度信念网络和决策融合算法的基础上,提出了基于深度学习的航空发动机故障融合诊断模型。该模型通过分析发动机的大量性能参数,先利用深度学习模型提取出性能参数中的隐藏特征,得出故障分类置信度;其后对多次故障分类结果进行决策融合,从而得出更准确的诊断结果。将普惠JT9D发动机故障系数用于数据仿真,通过算例验证本文算法的有效性;算例计算结果表明:多次实验结果经数据融合提高了可信度,该模型具有较高的故障分类诊断准确性和抗干扰能力。</t>
-  </si>
-  <si>
-    <t>http://www.cqvip.com/qk/93404x/201704/671864202.html</t>
-  </si>
-  <si>
-    <t>航空发动机涡轮叶片测量评估的多样本融合方法</t>
-  </si>
-  <si>
-    <t>张强， 蒋睿嵩， 汪文虎， 赵德中 - 铸造技术, 2017 - cqvip.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 航空发动机涡轮叶片测量评估的多样本融合方法. 《铸造技术》2017年第4期 | 张强 蒋睿嵩 汪文虎
-赵德中 北京航空材料研究院 … 单个叶片并不能精确的表征叶片变形量;为此,需要针对一批叶片进
-行测量评估,从而获得统计意义下的精铸位移场,这其中主要的难点即为多样本测量数据的融合 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=vk3ZwknRGRzbid1SoVlSqVjSPFGNyEXOTdFbERHaydjNzNFTKd2TXFWUhRVO5gDcLhXODF3YDNlYmZ0SMllSwcVN3FlMTljexZjMUJmUwNzSx5GdzYXMycjNOdVUrhXeOBVazl2ZFZXRsljdxEWZ3UUaQpHOQ1WS&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>为获得涡轮叶片精铸位移场进行模具型腔优化,需要对叶片进行测量评估。由于精铸工艺系统误差和随机误差的影响,单个叶片并不能精确的表征叶片变形量;为此,需要针对一批叶片进行测量评估,从而获得统计意义下的精铸位移场,这其中主要的难点即为多样本测量数据的融合问题。为此,本文提出并研究了一种基于最短路径准则的涡轮叶片多样本测量数据融合方法,通过建立数据点融合模型,实现了多样本数据的统计学建模,从而有效的消除了制造系统误差对精铸位移场的影响,并进行了实例验证。</t>
-  </si>
-  <si>
-    <t>http://html.rhhz.net/BJHKHTDXXBZRB/20190606.htm</t>
-  </si>
-  <si>
-    <t>多源数据融合的民航发动机修后性能预测</t>
-  </si>
-  <si>
-    <t>谭治学， 钟诗胜， 林琳 - 2019 - html.rhhz.net</t>
-  </si>
-  <si>
-    <t>针对民航发动机修后排气温度裕度预测过程中的多源异构数据融合问题, 提出了卷积自编码器与极端梯度提升模型结合的方法. 利用所提出的条件熵增长因子规整发动机修前多元传感器参数序列中的参数排序, 采用卷积自编码器提取规整后的参数序列和维修工作范围的数据特征 …</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=lQr52U4ZkN1M3TXFVWW9UR0lVV5ZFNmZjWwkncrplWJlEVih2QiFmdCVDaxBXUrUGZZFWcnJEVFNUe=0TQZN3YDh3YxJnUhZnMUhEOUdHaudEZBlzdr5kYyQndDhUSLdkbRRHWHllNIJUdNRWcOZnMY5GdCZ&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>针对民航发动机修后排气温度裕度预测过程中的多源异构数据融合问题,提出了卷积自编码器与极端梯度提升模型结合的方法。利用所提出的条件熵增长因子规整发动机修前多元传感器参数序列中的参数排序,采用卷积自编码器提取规整后的参数序列和维修工作范围的数据特征,并将其与发动机使用时间信息组成合成特征以训练极端梯度提升模型,从而预测发动机修后性能并评估各影响因素的重要程度。经发动机机队维修案例验证,所提方法预测精度高于单维参数序列预测方法,对发动机修后排气温度的平均相对预测误差不高于8. 3%。</t>
-  </si>
-  <si>
-    <t>http://cdmd.cnki.com.cn/Article/CDMD-10287-1017875590.htm</t>
-  </si>
-  <si>
-    <t>基于数据挖掘的航空发动机磨损界限值制定方法研究</t>
-  </si>
-  <si>
-    <t>张全德 - 2017 - cdmd.cnki.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 主要研究内容如下:(1)针对航空发动机油液数据不一定服从正态分布的情况,研究了基于概率密
-度函数估计的界限值制定方法,其中包括最大熵法、Parzen窗法以及K近邻法,并通过仿真数据以及
-实际数据验证了方法的有效性及其适应范围。(2)提出一种航空发动机油液光谱数据融合界限值 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=kRUdkZkMMBHM1gWUrYzUU52KaR2Q0MHaDxmZChXS5UjaxVDczp1UsdXSlJUQ0gVUYxGaXJnShJUWINkY2EDMuF3SLdENnNDV2k2Q1t2KvhnN5RjYphmMKZHVslWVGZTWY1WT5B1SxhneU1kNNBHSvpnTzF0RCpUO&amp;tablename=CMFD201801&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>由于航空发动机极易发生各种磨损故障,并且各磨损物主要残留在飞机的润滑及液压系统中,因此采用油液分析技术对发动机的磨损情况进行监控与故障诊断就有十分重要的意义。主要研究内容如下:(1)针对航空发动机油液数据不一定服从正态分布的情况,研究了基于概率密度函数估计的界限值制定方法,其中包括最大熵法、Parzen窗法以及K近邻法,并通过仿真数据以及实际数据验证了方法的有效性及其适应范围。(2)提出一种航空发动机油液光谱数据融合界限值制定的故障诊断方法。通过对油液光谱特征元素进行特征融合,得到一个衡量航空发动机磨损状态的健康指标,对该指标进行界限值制定,从而实现对油液数据进行磨损故障诊断的目的。该健康指标的界限值对于评价航空发动机磨损状态具有重要的意义,与分别针对不同元素制定界限值对比,更为简单可靠。(3)提出一种航空发动机油液数据知识规则自动提取的故障诊断方法。通过对特征融合得到的健康指标制定界限值之后,能够对原始数据样本状态进行划分;然后借助weka平台提取出原始数据蕴含的知识规则,通过提取的规则实现故障诊断。最后,通过实际航空发动机磨损光谱数据的提取结果可知,基于weka平台的知识规则提取具有很高的识别率,能够很好的识别故障数据,使得故障诊断更加智能化、自动化。(4)采用Microsoft Visual C++6.0和Microsoft Access 2003数据库开发了航空发动机滑油监控专家系统EOMES(Engine Oil Monitoring Expert System),实现了基于界限值制定以及规则提取的航空发动机磨损监控以及智能诊断等功能。</t>
-  </si>
-  <si>
-    <t>http://www.jsjclykz.com/ch/reader/view_abstract.aspx?file_no=201807300952</t>
-  </si>
-  <si>
-    <t>基于数字孪生的航空发动机低压涡轮单元体对接技术研究</t>
-  </si>
-  <si>
-    <t>王岭 - 计算机测量与控制, 2018 - jsjclykz.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 装配的低压涡轮单元体对接安装关键过程为对象，采用数字孪生技术，通过对环境、
-工艺过程中的物理对象建模，并使用多传感器进行模型与物理对象之间数据映射与互联，实现航空
-发动机低压涡轮单元体对接工艺过程与3D虚拟对接仿真过程的物理融合、模型融合、数据融合。通过 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=kN39WakRTOsBXNBRme4dTZwFnc6NlcJFTVk5WS4VVTld1Y2UndXZjNBJ3VOt2MxsGNiZVemdnSpF2S=0TR2R1T5IkSOZ3cwA1QTlGZ0RnTvgjdL1ES2ZHMrcnbiVHbLl2YoRXZC1mMRBlMxkFcnd0RQRUTYF&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>提出一种基于数字孪生的航空发动机低压涡轮单元体对接技术,以某型航空发动机总装装配的低压涡轮单元体对接安装关键过程为对象,采用数字孪生技术,通过对环境、工艺过程中的物理对象建模,并使用多传感器进行模型与物理对象之间数据映射与互联,实现航空发动机低压涡轮单元体对接工艺过程与3D虚拟对接仿真过程的物理融合、模型融合、数据融合;通过数据在虚拟仿真环境中的可视化展示与分析,实时预警及决策,并借助物理终端控制实现低压涡轮单元体对接安装过程的实时位姿调整,提高了真实对接过程的可视性、可达性、可操作性和可预测性;基于数字孪生的低压涡轮单元体对接技术可保证在复杂装配条件、高精度要求下,真实单元体装配过程的无磕碰对接,减少操作人员劳动强度。</t>
-  </si>
-  <si>
-    <t>http://www.cnki.com.cn/Article/CJFDTotal-HKFJ201905017.htm</t>
-  </si>
-  <si>
-    <t>数字孪生技术在航空发动机智能生产线中的应用</t>
-  </si>
-  <si>
-    <t>崔一辉， 杨滨涛， 方义， 徐新 - 航空发动机, 2019 - cnki.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 技术加快航空发动机数字化转型升级,分析了数字孪生技术的概念和内涵,论述了数字孪生技术在航空
-发动机设计、制造和服务等业务领域的应用场景,对智能生产线应用数字孪生技术的实现途径进
-行了分析和验证。实践表明:数字孪生技术与MBD建模、数字线索、虚拟仿真、数据融合等技术 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=DTSlVSsVHSn9kUORkbpNmbFRjRtd0VSd1YUJkY55WMmVDMvE1QrglYt1GV3Z3Swgzc2JVQTd0VDhVQ=0zcBFkYF9EWu92c4B3VtFUZQ1ESzgTNxtEcwk0L3gFUJdzQadDezkFWndlQlpUTBJmRaZUTntCR1h&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>为探索采用新一代信息技术加快航空发动机数字化转型升级,分析了数字孪生技术的概念和内涵,论述了数字孪生技术在航空发动机设计、制造和服务等业务领域的应用场景,对智能生产线应用数字孪生技术的实现途径进行了分析和验证。实践表明:数字孪生技术与MBD建模、数字线索、虚拟仿真、数据融合等技术相关联,能够进一步优化车间布局和生产节拍,改善工艺设计,实现生产制造过程的准实时监控和动态调整,有利于提高产品生产质量和生产效率。</t>
-  </si>
-  <si>
-    <t>http://cdmd.cnki.com.cn/Article/CDMD-10248-1019634679.htm</t>
-  </si>
-  <si>
-    <t>基于谱聚类算法的航空发动机故障诊断</t>
-  </si>
-  <si>
-    <t>程弓 - 2018 - cdmd.cnki.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… 程弓. 【摘要】：航空发动机作为飞行器的动力核心对飞行器的安全飞行有着举足轻重的作用,保证航空
-发动机的平稳运行对飞行安全有着重大意义。基于数据融合的航空发动机故障诊断技术面临着两
-大难题:1、由于航空发动机故障类型多、故障数据复杂,基于有监督学习的故障诊断模型受限 … 
-</t>
-  </si>
-  <si>
-    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=rlGTmFEbLVDUm9SdsJ2R1dnZXRHORNVS2lHVJNEShdzNw0mNsdjQnRUVvFjWsNDar4WexkmNvc2TnZlNsN3SnZ3dUlna4ZlQ90zdnlFcyJGZppHNvEXckF2NkxkV4Y3b4YkV5cmbv9WQy0kY6RFR4ZkZBplNtdTaYRkMQtCRZ5mdzY0VstyZzY2cpJVWnVTQ&amp;tablename=CMFD202001&amp;dflag=pdfdown</t>
-  </si>
-  <si>
-    <t>航空发动机作为飞行器的动力核心对飞行器的安全飞行有着举足轻重的作用,保证航空发动机的平稳运行对飞行安全有着重大意义。基于数据融合的航空发动机故障诊断技术面临着两大难题:1、由于航空发动机故障类型多、故障数据复杂,基于有监督学习的故障诊断模型受限于训练数据故障标签不全的因素,无法得到充分有效的训练;2、航空发动机工作条件极端,机载传感器测量的航空发动机参数受噪声干扰严重。本文以航空发动机快速存取记录器(Quick Access Recorder)记录的部分飞行参数为研究对象,针对航空发动机故障数据复杂多变、有监督学习故障诊断模型所包含故障标签不全面的问题,提出基于聚类算法的航空发动机数据处理的方式,将不同健康状态下的航空发动机QAR数据分成不同的类别,方便维修与科研人员对航空发动机状态的判断与研究。针对QAR系统中,机载传感器测量数据受噪声干扰大,且QAR记录的数据有着维度高、容量大且数据集形状不规则的特点,引入了经验小波变换方法对航空发动机的QAR数据进行噪声过滤,提取出纯净的QAR特征数据,解决了QAR数据受噪声干扰大的特性;引入了扩散映射(Diffusion Maps)算法,对QAR的特征数据进行数据降维,解决了QAR特征数据维度高的特点;引入谱聚类算法对特征数据进行聚类分析解决QAR数据集形状不规则的问题,并针对谱聚类算法无法自行确认数据集中簇类别数的缺陷引入基于密度峰值的聚类中心点选取方法和BIC准则(Bayesian Information Criterion),对数据集簇类别数与聚类中心点进行选取,解决了聚类算法中因数簇类别数未知而导致的聚类结果错误;并将基于密度峰值的聚类中心点选取方法和BIC准则应用于谱聚类算法的Nystrom扩展中,优化了Nystrom扩展的采样策略,解决了谱聚类算法不适合处理大容量数据集的问题。</t>
+    <t>http://www.cnki.com.cn/Article/CJFDTotal-DZRU201923099.htm</t>
+  </si>
+  <si>
+    <t>基于 NoSQL 数据库的模型设计方法</t>
+  </si>
+  <si>
+    <t>张华兵， 林志达， 张今革 - 电子技术与软件工程, 2019 - cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 摘要】：No SQL数据库是在应对大数据问题过程中新发展的数据库技术。与传统关系型数据库相比
+No SQL数据库具有其自身独特的优势,Mongo DB是一种较流行的时序数据库,由于No
+SQL是新技术未形成统一的标准,因此在平台配置与数据模型设计时需要多方面考虑以适应实际的 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=kVQVWav5WQlVnY2ImUaRzYKNzRP9iZIVFbkpFeYZFS3MzSvgWdzgmRMh1dHJ1aahncKl3UGVWaoZHV=0zaadlWYRXOl1WR2cVMy9EVSpVdJJGM39GW19kaQ9CW0dnUygzSO5WbjNFOMxUZuZkNYhnZrdTQ5U&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于NoSQL数据库的模型设计方法</t>
+  </si>
+  <si>
+    <t>No SQL数据库是在应对大数据问题过程中新发展的数据库技术。与传统关系型数据库相比No SQL数据库具有其自身独特的优势,Mongo DB是一种较流行的时序数据库,由于No SQL是新技术未形成统一的标准,因此在平台配置与数据模型设计时需要多方面考虑以适应实际的需要。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10590-1018823757.htm</t>
+  </si>
+  <si>
+    <t>基于物联网的生命体征数据采集系统软件平台研究</t>
+  </si>
+  <si>
+    <t>黄庆斌 - 2018 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 关系型数据库。本论文的创新点如下:1、生命体征数据采集系统软件平台采用数据模型、控制、
+视图分离的模式,每个部分相互独立,同时又相互联系、协调统一,在开发工作的效率方面有很大的提升,
+并且在后期维护方面也有很大的便利性。2、数据库采用关系型数据库与时序数据库并用的 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2Q3cjWxx2Y1VXYmNVS0UnZ0UWVqV2YIZ0L0ZVWvs0bVNzRr42MW5mSiRGOYJFZFNkRCVlblVkSH9Gd=0TVXhzNhFDRtlHTydjdxUEa1NFOiZ2LR5WUyhWcFN3MwJVarETZm5kaCFjMrUUdtV0YxY2SPZDeP1&amp;tablename=CMFD201902&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着互联网信息化技术的迅速发展并向各行各业加速渗透,医疗与物联网相互结合,医疗自动化开始逐渐成为一种趋势。传统医院信息系统经过多年的发展,在国内的三甲医院中保持着很高的使用率,其主要功能是通过计算机软硬件以及网络通讯技术对医院的医疗活动数据进行采集、传输、存储和管理等,在很大程度上简化了医院的行政工作以及日常事务处理,提高了医院整体的工作效率。然而生命体征数据的自动化采集过程在医院信息系统中依旧属于薄弱环节,为了提高医护工作中生命体征数据采集的数据准确性,简化流程并提高效率,本文基于医疗物联网技术,研究了一套生命体征数据采集系统的IT解决方案,实现了医院无纸化查房以及床旁检验项目的信息采集,病人的生命体征数据采集由传统的手抄再转录系统,演进到手持无线移动设备自动录入的方式。本文针对基于物联网的生命体征数据采集系统的关键技术,在蓝牙数据采集仪器的基础上,研究了生命体征数据的采集、通讯、存储、管理、展示以及对接等过程的设计和实现,涉及的主要内容如下:基于医院现有的信息系统环境,对生命体征数据采集系统进行需求分析,设计了生命体征数据采集系统软件平台的总体架构与功能模块。首先介绍基于BLE低功耗蓝牙通讯技术和HTTP协议的生命体征数据采集过程的通讯原理,然后对数据库表进行逻辑分析设计,采用关系型数据库与时序数据库的并用模式,实现大数量级生命体征数据的存储管理工作。设计开发基于SSM框架的服务器架构和护士站管理系统,并介绍服务器与医院HIS系统的对接原理。最后对系统进行测试和性能分析,表明系统能够稳定正常运行,实现生命体征数据的自动化采集流程,并且在大数量级时序数据的存储方案上InfluxDB时序数据库要优于MySQL关系型数据库。本论文的创新点如下:1、生命体征数据采集系统软件平台采用数据模型、控制、视图分离的模式,每个部分相互独立,同时又相互联系、协调统一,在开发工作的效率方面有很大的提升,并且在后期维护方面也有很大的便利性。2、数据库采用关系型数据库与时序数据库并用的方式,关系型数据库存储系统的业务逻辑数据,时序数据库存储病人大数量级的生命体征数据。同时生命体征数据的大数据存储在大数据时代背景下很有医学研究意义,能够为人类的生物医学研究事业做出极大的贡献。</t>
+  </si>
+  <si>
+    <t>http://www.kjdb.org/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=15634</t>
+  </si>
+  <si>
+    <t>开源软件中的大数据管理技术</t>
+  </si>
+  <si>
+    <t>江天， 乔嘉林， 黄向东， 王建民 - 科技导报, 2020 - kjdb.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 文档数据库 时序数据库 内存数据库 分布式文件系统 … 基于Hadoop的数据仓库 支持关系模型的数据
+查询引擎 多种数据库的统一连接器和查询API 全文检索系统 … 大量XML数据的查询引擎
+大数据交互式分析和可视化工具 Java内容仓库标准的实现，用于存储结构和非结构化数据 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=0bRhDbBFVe4Y3SFtEO2FTWCFVR4llWt9kVYZWeORDawpVZ0hHWVlGVMpmYzMUW5M1bzYUaaRnUzJkY=0DMoZWZLBDRUdnYrlUOLJ1TUh0aidjMFdkdwgXWClGNxVGUD9GVoJmZ1dHU550LZdVWvcEM1ticZt&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着谷歌文件系统和宽表结构为代表的技术打破依赖关系数据库管理海量数据的限制,以Apache Hadoop为代表的开源大数据管理系统软件新技术与系统不断涌现,并快速成熟应用。针对Apache开源社区中面向在线事务处理和在线分析处理场景的大数据管理软件,介绍了大数据管理中的数据存储、数据分区、副本机制、分布式协议等,并比较分析了分布式文件系统、键值库、时序数据库等典型分布式数据管理系统的优缺点。</t>
+  </si>
+  <si>
+    <t>http://www.syxb-cps.com.cn/EN/article/downloadArticleFile.do?attachType=PDF&amp;id=5251</t>
+  </si>
+  <si>
+    <t>基于大数据的油气集输系统生产能耗时序预测模型</t>
+  </si>
+  <si>
+    <t>檀朝东， 项勇， 赵昕铭， 王辉萍， 高丽洁 - 石油学报, 2016 - syxb-cps.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 中，当源覆盖和目标覆盖的值在 一定数值以上的时候，新方法能够大大降低在数据库 挖掘关联 …
+但这些操作仅耗费了极其有限的时间，却使总耗时比 原方法大为降低 … 系统。原油集输流程中能
+耗指标为热能利用率、单位 液量能耗，以这２个指标为挖掘目标，建立多变量混沌 时序预测模型 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2NrtUOrZGesZGT5RlWP1ke1N1ZXxmeQFWYzgHSLVXTvkTQsdVQVF0YqJ0bPplU1gFZld2QmtUWIVGR=0DNHR2bDhGSaVGRNR3bDZFU6hnQ08mVZNEemdWUlBjYiVTaYlHWGFUU4QFU1UzLihWTH1WRLx2azZ&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>针对集输系统组成关系多、系统行为复杂、子系统之间以及系统与环境之间的关联程度高、耦合性强、易产生故障和能耗高等特点,基于油气集输生产过程中积累的温度、压力、流量、设备工作制度、能耗等海量数据,建立了集输数据粒度模型,实现了基于热能利用率、单位液量能耗等多目标、多变量时序的集输系统生产能耗预测。针对不同时间粒度(如日、月、年等)、不同空间粒度(如井组、区块、油田等)、不同集输方式粒度(如单相输、油-气-水混输),建立了多变量时序混沌能耗预测模型;构造了粒关联规则模式挖掘算法。以大港油田A集输系统为例,研究了集输生产系统的能耗因素粒之间的关联关系;预测了集输生产参数调整对系统未来能耗变化,获得集输系统效率和能耗的预警。</t>
+  </si>
+  <si>
+    <t>http://www.shcas.net/jsjyup/pdf/2019/9/%E5%9F%BA%E4%BA%8EinfluxDB%E7%9A%84%E5%B7%A5%E4%B8%9A%E6%97%B6%E5%BA%8F%E6%95%B0%E6%8D%AE%E5%BA%93%E5%BC%95%E6%93%8E%E8%AE%BE%E8%AE%A1.pdf</t>
+  </si>
+  <si>
+    <t>基于 influxDB 的工业时序数据库引擎设计</t>
+  </si>
+  <si>
+    <t>徐化岩， 初彦龙 - 计算机应用与软件, 2019 - shcas.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… TSM），针 对时序数据的读写分别进行了优化设计。在写入时， 将数据追加写入到日志文件（
+WriteAheadLog，WAL） 中，并在内存中进行缓存，当内存缓存达到一定大小时 创建新的日志文件 …
+表1 开源时序数据库性能对比表 序号对比数据库写入速度 读取速度 存储空间占用 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=DeItyd3YVcPhFdJZjWsh2d0lnRFllVv0mZVZzT1h3czhUbDZFSnpEMSdFaKlEalxER5R2dHpETtBFb=0zZPhkaZNjd5dkRFBTVXx2YVJ0UpFkVKx2S3ZEaxATbNZlUMJ1ULFHSzFUMNllaw4mTwlGbtlGWvd&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于influxDB的工业时序数据库引擎设计</t>
+  </si>
+  <si>
+    <t>工业时序数据具有测点多、采样频率快、读取性能要求高等特点。influxDB提出时间结构合并树TSM,解决了数据的读写性能优化问题,并针对整数、浮点数、布尔、字符串、时间五种数据类型采用不同的压缩算法。它在读写性能、存储空间占用方面取得了较好的效果,在开源时序数据库软件中排名第一。针对influxDB元数据结构相对于工业时序数据过于复杂的问题,提出简化后的TSM文件结构,开发工业时序数据库的引擎,并进行了读写性能测试。结果显示,该引擎一次5万点整型数据写入平均耗时约310 ms,读取1 000点共计100万条数据耗时约626 ms,并且具有很大的性能提升潜力。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/90580x/2017s1/68887588504849558349484852.html</t>
+  </si>
+  <si>
+    <t>基于 HBase 的工业大数据时序数据存储实现</t>
+  </si>
+  <si>
+    <t>张华伟， 陈勇， 李海斌， 潘爱兵， 赵俊， 崔萌 - 电信科学, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 【收录】, 中文科技期刊数据库 … 数据脱敏在海量数据系统中的应用; 基于大数据技术的电力用户画像;
+基于HBase的工业大数据时序数据存储实现; 基于POTN技术的电力通信网规划方案; …
+基于IMS技术的电力系统接入组网模型; 全球能源互联网天地协同通信技术体系架构研究 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=DVvAjc5R2LapUT2M1TwJlYlJXciFDRzV1UuFVMztyLqJXQuhGdCJnRzNWbTlmR5ZFexo1aBZUbJVmS=0zYodXV4Z3UG9CMJxEVTRWYtlVaOF0ZNRzcLh3YXNlVDZHVIF0QBJlQVtEZnd1R2dGW5dkTQJlV3U&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于HBase的工业大数据时序数据存储实现</t>
+  </si>
+  <si>
+    <t>实时数据库的出现打破了流程工业生产中的"数据壁垒"效应的瓶颈,促进流程工业生产水平和生产管理水平的提高。首先介绍了Hadoop大数据技术的发展,其次阐述了基于HBase时序数据库的主要设计,最后基于HBase的时序数据库进行了实验验证,证明了采用HBase技术搭建时序数据库系统是可行的。</t>
+  </si>
+  <si>
+    <t>http://www.infocomm-journal.com/bdr/EN/abstract/abstract169639.shtml</t>
+  </si>
+  <si>
+    <t>工业时序大数据质量管理</t>
+  </si>
+  <si>
+    <t>丁小欧， 王宏志， 于晟健 - 大数据, 2019 - infocomm-journal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 的数据质量问题包括值 缺失、格式不一致、数据重复、数据异常和 违反业务规则等。
+分析人员在做任何决策之 前，必须考虑脏数据的影响，因此，数据清 洗已经成为数据库研究的 …
+通过调研，笔者总结了工业时序数据 质量管理的研究难点，具体如下[2,4] … 工业大数据除了具有规模 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=TTEVDSEdzQM5WapBXUMBlZxkTQ3NkMvJVUqtmNIl2Z2VVV2I3bxlUSKp0bMVUbmJmUItERHVGZmFWb=0DMtBVNotEd5N0LadGRGxWSyFWcPhFa3cGO1F3QkdWQIx2UrtURDNlTvd3M1MkcSR1RpV2U1BlMwN&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>工业大数据已经成为我国制造业转型升级的重要战略资源,工业大数据分析问题正引起重视和关注。时序数据作为工业大数据中一种重要的数据形式,存在大量的数据质量问题,需要设计数据清洗方法对其进行检测和有效处理。介绍了工业时序大数据的特点及工业数据质量管理的难点,并对工业时序大数据质量管理的研究现状加以分析、总结,最后,提出了时序大数据质量管理方法和系统性能的提升方向。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10009-1019156221.htm</t>
+  </si>
+  <si>
+    <t>基于 Hadoop 的工业大数据监测分析平台技术实现</t>
+  </si>
+  <si>
+    <t>李晓根 - 2019 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 等相关功能组件、实时数据库Redis以及传统关系型数据库MySQL等组件的部署整合,实现了基于
+Hadoop生态圈的云端数据分布式存储子系统对于工业大数据的高可靠和多样化存储利用。然后,通过对
+GRU on Spark方法的研究和应用,实现了基于该方法对于工业时序大数据模型的高效率 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=Ed0QmRIpVbBNnTaV3cyQmaLVGMVVmMYJmNwRVbv52QNF2ZyxWb4V1MxFjVxJjUEF3UhZHcI5ET45UV=0TU0kXaz5WcZxGaBRlYZZ2TttkTudTZ2h0KENnaZFDZkpUahNFeFN2aYRTW0JUNNhkdlJUVxA1dpx&amp;tablename=CMFD201902&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于Hadoop的工业大数据监测分析平台技术实现</t>
+  </si>
+  <si>
+    <t>本文针对传统工业架构下工业企业面临的数据孤岛、数据处理技术不明确、数据利用效率低下等问题,对基于Hadoop的工业时序大数据云平台相关技术架构进行了深入研究,并搭建了基于该架构的小型私有工业大数据云平台,实现了对工厂设备的云端组态、远程监控、预测分析等。该云平台实际应用情况表明其对于大数据技术应用于工业企业、促进管理人员智能决策等具有重要的意义。本文中将上述工业大数据云平台分为云端数据采集子系统、云端数据分布式存储子系统以及云端数据分布式分析子系统,并对各个子系统进行设计和实现。本文的主要工作如下:首先,通过对基于OPC UA协议的数据采集客户端进行开发,同时对Flume,Sqoop等相关组件进行整合,实现了云平台的云端数据采集子系统的构建。最终实验测试表明了该云端数据采集子系统对于多种数据源数据的采集支持以及该子系统的高可用性和高可扩展性。其次,通过对Hadoop生态圈中HDFS、HBase等相关功能组件、实时数据库Redis以及传统关系型数据库MySQL等组件的部署整合,实现了基于Hadoop生态圈的云端数据分布式存储子系统对于工业大数据的高可靠和多样化存储利用。然后,通过对GRU on Spark方法的研究和应用,实现了基于该方法对于工业时序大数据模型的高效率构建,以及对该类数据的高准确率的预测分析。实验结果表明本文中使用的GRU on Spark方法在保留GRU门限递归神经网络结构简单的基础上,充分利用了Spark并行计算框架依靠内存计算的特性,在保证模型预测的准确性的同时,也很好地提升了其训练速度。这也进一步表明该方法应用于工业时序大数据预测分析场景的可行性。最后,通过对Abp Zero Core可视化框架的进一步优化和开发,实现了本文中的工业大数据云平台对于以上各个子系统的可视化管理。实验结果表明了该云平台整体架构的可行性以及高可靠性。</t>
+  </si>
+  <si>
+    <t>http://html.rhhz.net/ZGJCYJ/html/2019-4-161.htm</t>
+  </si>
+  <si>
+    <t>基于时序数据库的无人船信息管理系统设计与性能测试</t>
+  </si>
+  <si>
+    <t>黄一， 王鸿东， 程锋瑞， 梁晓锋， 易宏 - 2019 - html.rhhz.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 在分析无人船信息管理系统的数据流动模型和功能设计的基础上，按照系统在无人船运行期间对
+数据及控制指令进行路由分发、存取 … 系统主要依赖InfluxDB时序数据库提供存储和分片文件索引。
+借助时序数据库的快速存储特性，确保无人船信息实现高速存储。同时，船上大部分数据都 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=1Lht2KhB1TRRDdQd1bLllatRTUZhTWxpXOzhHcsFWO5dTd4xGdtNDMZdXWU9kQPhkSMl0YCpUcjp2T=0TU4hFVyhVOPlkcKBlTiNWZtNFeipVQyAnZygHZ0F0aOt0KiZzRxFHc6pXMJBzLvY2ZNxmVqB3U2d&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>[目的]近年来,无人船技术及产业发展迅速,装备应用前景广阔。解决长航时无人船海量信息管理问题的需求日益迫切。[方法]针对无人船电子信息系统中6种类型数据的特点,构建基于时序数据库的无人船信息管理系统拓扑及数据流动模型,并设计一套适用于无人船信息管理系统的性能测试方法。[结果]经测试表明,该无人船信息管理系统能够满足无人船运行对信息管理的需求,且相比于传统关系型数据库,其压缩性能提高约10%,检索及聚合分析性能更为优异,具有较高的通用性。[结论]该系统为解决长航时无人船信息存储与通信传输难题提供了良好的解决方法。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/92224x/201712/673962229.html</t>
+  </si>
+  <si>
+    <t>基于大数据的物资价格预测方法探索</t>
+  </si>
+  <si>
+    <t>柴利达， 薛沁文， 毛娜， 蔡宇冬， 吴显锋 - 电力大数据, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 并基于这些物资相关大数据，探索时序预测的方法、简单回归分析模型及复杂的分类回归模型等机器
+学习算法对电力物资价格的预测，并对模型的预测效果进行评估。结果表明，时序分析的方法效果
+差强人意，而将时序转换为 … 【出处】, 《电力大数据》2017年第12 … 【收录】, 中文科技期刊数据库 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2Yn52cygTV0g0aYljYahWcuJza5AVNrcXemFUWw0kavJlTRNlZ6RlU1InbURnWmZHMBhHVhVFUBJlS=0TQrdTRRBzR2IFMVplbjVFZ1MEbMJ2ayhkWBxWeXh0T5N3asZ2dKVWbaZlNDN1aqdzb4UFWChXMj5&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>通过分析物资价格相关的影响因子,并基于这些物资相关大数据,探索时序预测的方法、简单回归分析模型及复杂的分类回归模型等机器学习算法对电力物资价格的预测,并对模型的预测效果进行评估。结果表明,时序分析的方法效果差强人意,而将时序转换为回归问题,进而使用梯度提升树可以得到较理想的结果。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/95838a/202001/7101225525.html</t>
+  </si>
+  <si>
+    <t>基于统一数据模型的广西配用电大数据分析平台的设计与实现</t>
+  </si>
+  <si>
+    <t>梁朔， 陈绍南， 奉斌， 李珊， 秦丽文， 魏政彬 - 广西电力, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 工程技术 &gt; 电气工程 &gt; 发电/电力网/电力系统 &gt; 摘要
+基于统一数据模型的广西配用电大数据分析平台的设计与实现. 《广西电力》2020年第1期 | 梁朔 陈绍南
+奉斌 李珊 秦丽文 魏政彬 广西电网有限责任公司电力科学研究院 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=GVhVzYFNUcqJlRvwkbIVmQX9GSmRTYzZ0Y2o2b24EbXhTMrwkSwIFS3klYOdXcD9CO4VUd3RFak1kR=0TSqlmazJWSVF1Q5E3RPhHeydXQLN0Q3pmS3MWa0dXbmpFRGVnZtdDes90ToZ0VHRTRiZmYUdGekF&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>针对目前配电网数据结构多样、数据源不唯一等问题,提出了基于多源数据融合的配用电统一数据模型,并在此基础上构建了广西配用电大数据分析平台。该平台打通了配网不同业务系统间的数据壁垒,实现了配网生产管理、营销、运行、GIS等数据的融合,并形成了高效、有序的信息共享模式,为配电网规划建设、运行维护、客户服务等提供了高效的数据辅助决策服务。</t>
+  </si>
+  <si>
+    <t>http://www.kjdb.org/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=15632</t>
+  </si>
+  <si>
+    <t>大数据软件产品研发进展及挑战</t>
+  </si>
+  <si>
+    <t>刘英博， 魏凯 - 科技导报, 2020 - kjdb.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 过在上面的符号中将谓词解释为主语和宾语之间 的连接。然而，RDF存储提供了超出一般图数据库
+的扩展功能。例如，大多数RDF 存储都支持类似 于SQL的RDF数据查询语言SPARQL[20]。
+8）时间序列数据库。时间 … 处理时间序列数据进行了优化的数据库管理系统， 时序数据库中的 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=VUFxWaMNXbB1Eb3kXeYlDauRXR3YlYrMGR0s0RpdEchB3cFN1NwtCRwtUNMBVN5kDc6NUUZBlTqh2c=0TSyZWTkhUQGdXZsZDNPZ3YRtyc4E3L4cjQw9WdUJVcGtkayxEcK5WbopWQIpGdvYzKwBjezRVTDZ&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>大数据技术的蓬勃发展催生了丰富的大数据应用,当今各种大数据产品形成的复杂的生态系统。从数据的存储和分析两个角度概述了大数据产品的核心技术,结合权威评测机构的结果,分析了国内市场上大数据产品的现状。未来中国大数据产品研发在开源社区的参与度、复合型人才培养、产品细分和跨学科协同创新上还需进一步努力。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/97749x/201903/74837474504849574851484850.html</t>
+  </si>
+  <si>
+    <t>基于人工智能技术的大数据分析方法研究进展</t>
+  </si>
+  <si>
+    <t>王万良， 张兆娟， 高楠， 赵燕伟 - 计算机集成制造系统, 2019 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 工程技术 &gt; 自动化计算机 &gt; 计算机软件 &gt;
+摘要 基于人工智能技术的大数据分析方法研究进展. 《计算机集成制造系统》2019年第
+3期 | 王万良 张兆娟 高楠 赵燕伟 浙江工业大学计算机科学 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=HT4EDMTRGN6dzKxgEOxRlSYlUeLZVVGBHc2pFNPVTNTVjN2BDVGRXSoZ3dpV1cFRGVZxkdqR0dRx2d=0TRhB1Y2NWdx0EZERVQw5Ee5M2YD1EbKVUaKNmMzczTyNTdYVjdElTZvMTS3ZUeEZVW0Mza1RHaFF&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>人工智能、大数据、云计算、物联网等信息技术为推动集成制造快速发展提供了关键技术手段。近年来,采用人工智能技术进行大数据分析取得了突破性进展。系统总结了基于人工智能技术的大数据分析方法的最新研究进展。从大数据的聚类、关联分析、分类和预测4个主要的数据挖掘任务出发,分析了大数据环境下机器学习的研究现状;针对深度学习这一热点,总结了基于MapReduce、Spark的分布式深度学习实现,以及面向大数据分析的深度学习算法改进相关研究;从群智能、进化算法两方面梳理了基于计算智能的大数据分析相关研究;针对大数据平台,特别对大数据分析和深度学习集成框架进行了归纳,介绍了大数据机器学习系统和算法库;分析了大数据分析中人工智能技术面临的主要挑战,并提出了进一步的研究方向。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/90494a/201617/670097617.html</t>
+  </si>
+  <si>
+    <t>分布式海量时序数据管理平台研究</t>
+  </si>
+  <si>
+    <t>喻宜， 吕志来， 齐国印 - 电力系统保护与控制, 2016 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 摘要：为了解决电力大数据环境下目前数据库产品无法高效管理海量时序类型数据难题,
+引入当前主流的分布式技术架构实现了真正意义分布式架构GAIA海量时序数据管理平台,
+保证系统更加稳定、可靠。采用具有可配置层次关系结构的模型中心来解决海量测点的管理问题 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=iUuJnSiNEOoJGWjh3NXhkQaVDOv92aWB3VJJXc0cEa2k1TMN2dPFWdKRVMxkXcpZ0dBFkdUhGcjFUS=0DN0RWNNhDSBFVYDRVVWFzaEtWcvgmc5IEOFNmRvoWc3dVVrNFTykzZWhUSqdmekVET5R2YXBnUXt&amp;tablename=CJFDLAST2016&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>为了解决电力大数据环境下目前数据库产品无法高效管理海量时序类型数据难题,引入当前主流的分布式技术架构实现了真正意义分布式架构GAIA海量时序数据管理平台,保证系统更加稳定、可靠。采用具有可配置层次关系结构的模型中心来解决海量测点的管理问题。基于时间分片、事件驱动的前置数据采集系统有效解决海量终端的实时数据采集性能问题。从而能够提高大规模时序数据的管理能力,满足电力行业数据管理平台的要求,大力推进电力行业信息化发展。</t>
+  </si>
+  <si>
+    <t>http://www.infocomm-journal.com/bdr/CN/10.11959/j.issn.2096-0271.2017057</t>
+  </si>
+  <si>
+    <t>工业大数据技术综述</t>
+  </si>
+  <si>
+    <t>王建民 - 大数据, 2017 - infocomm-journal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 体。以风机装备为例，根据IEC61400-25标 准，持续运转风机的故障状态，其数据采 样频率为50
+Hz，单台风机每秒产生225 KB 传感器数据，按2万台风机计算，如果全量 采集，则写入速率为4.5
+GB/s。总体而言，机 器设备产生的时序数据的特点 … 图8 基于数据库视角的大数据系统软件 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=mQ48CZSZjQO9mWJx0QK5USEdEM2QEWwpmdINGVwY1VQZHbiJWaFFUaLFlYxUFVSVjY3ZVcoJldDN1Q=0DODZmR4IlazhXbrATcydXcBhERmV2cPBFW2pFaahXQGRTZVlUQrMWT3hHSQd2UCtiRwZzRiFkSEZ&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>工业大数据是工业数据的总称,包括信息化数据、物联网数据以及跨界数据,是工业互联网的核心要素。分析了工业大数据的发展背景和主体来源,剖析了工业大数据、企业信息化和工业互联网之间的相互关系,阐述了工业大数据"多模态、高通量、强关联"的数据特点以及"跨尺度、产业链、跨界"多源数据融合的应用特点,探讨了工业大数据软件系统架构,给出了制造环节的大数据应用实例。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10674-1020715522.htm</t>
+  </si>
+  <si>
+    <t>海量射电天文观测数据的存储与处理研究</t>
+  </si>
+  <si>
+    <t>石聪明 - 2019 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 中国硕士学位论文全文数据库, 前10条. 1, 杨超;面向工业大数据的可视化系统设计与实现[D];电子
+科技大学;2019年. 2, 宁顺成;基于遥测时序数据的航天器异常检测技术应用研究[D];哈尔滨工业大学;
+2019年. 3, 陈远杰;基于覆盖模型的遥感时序数据互操作计算应用研究[D];福州大学;2018年 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=WR5RXbz1mZB50M4V3Z4MVRGZnexVXUUZlezplQ5JHZtl1SWJlZhBlYVpFMOlmez9CcCFWSIJ1UvVnS=0TSwVURqtWTpBzL210ZuF2cKlDePJWeYhmaM1WcmRnd2JTZTxUd1JmcaBjYT90VuRmdl5GaiZXZz1&amp;tablename=CDFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着科学技术的快速发展,人类社会信息化程度不断提高,大数据带来的深刻影响和巨大价值逐渐被人类社会所认识,让我们以一个全新的视野来看待世界的同时,全方位地改变了我们的生活、工作和思维模式,更为科学研究带来重大的机遇。信息管理及相关学科是大数据技术发展的根本核心,重点研究与解决大数据时代中的数据采集、传输、存储(归档)、检索、处理、分析、挖掘、发布以及应用等一系列关键问题。近几十年来,随着新一代天文望远镜的不断涌现,天文学进入大数据时代,天文观测所获得的数据成为人类社会最大的数据源之一。天文学科与信息学科不断融合与相互促进,逐渐发展成为一个新兴的前沿交叉学科—天文信息学。本文充分应用了信息管理及相关学科知识,根据当前天文海量数据管理中存在的关键问题,重点开展存储与检索、传输和归档三个方面的关键技术研究。最后,以两个射电望远镜的数据管理为用例(明安图射电频谱日像仪(MUSER)和平方公里阵列(SKA)射电望远镜),通过数据仿真、实例化测试、性能对比、理论分析来验证本文相关工作的正确性。具体说明如下:1)针对海量射电天文观测数据记录的高效存储与检索需求,基于观测数据具有固定的采样间隔和固定数量的连续观测数据记录按序存放在文件中的时序数据特征,本文提出了一种以集合中的补集思想为核心的面向时序数据的数据库系统,即负数据库系统。负数据库系统将文件中存在记录以及首尾记录之间丢失记录的元数据信息视为全集,把文件中首尾记录之间丢失记录的元数据信息看成补集,通过补集构建出来的文件逻辑结构关系,能够推导出文件中存在记录的元数据信息。论文给出了完整的形式化定义以及严格的理论证明。实测结果表明:在记录入库、数据检索以及要入库的记录数方面,负数据库系统比需要存储文件中所有存在记录的元数据信息的常用数据管理系统分别快18.8倍、快1.5-6.9倍以及降低!"倍(N指文件中的固定记录数)。进而说明,负数据库系统能够在大幅度降低存储开销和记录数的同时还能提供快速的检索功能。2)针对海量射电天文观测数据的跨区域高速传输需求,本文提出了带状态检测和重传功能的两路异步消息传输模型—高效消息传输模型。该模型是指用两路异步消息传输来分别单向高速传输数据消息和反馈消息,通过超时重传来确保数据消息一定送达接收方,以及通过实时状态检测来决定是否继续向接收方发送消息。该模型能够克服当前很多远程数据传输技术都使用的出错重传方法存在的需要等待对端反馈消息而降低数据传输效率的不足。基于高效消息传输模型实现了一套高效数据传输系统,该系统的性能测试结果表明:在传输文件大小为数百KB时,该系统获得的平均传输速度比天文中现有系统快将近40倍;同时,在数百兆字节这个量级和使用较少的并发数时,该系统获得的平均传输速度达到1172MB/s(该速度基本上实现了10Gb/s网络带宽的满负载),比现有系统快将近3.4倍。进而说明,实现的高效数据传输系统有效地提高了数据传输性能,缩短了数据传输时间。3)针对海量射电天文观测数据在进行高可靠性归档时尽可能降低数据冗余的需求,本文提出了基于纠删码的归档模型—低冗余归档模型。该模型是指将纠删码技术集成到研究2提出的高效消息传输模型中的数据消息接收方而形成的归档模型。该模型能够克服现有系统使用副本技术归档时存在的高数据冗余的不足。基于低冗余归档模型和RS(4,2)算法实现了一套低冗余归档系统,该系统的性能测试结果表明:在相同的实验环境下,该系统获得的平均异地归档速度是现有系统未启用3副本策略时的1.4倍,且只需要增加50%的额外存储开销就能达到基于3副本策略时需要200%的额外存储开销才能达到的数据可靠性;并发数和HWM是该系统调优的关键参数。进而说明,实现的低冗余归档系统具有较高的归档速度和能以较低的数据冗余获得较高的数据可靠性。综上所述,本文立足学科交叉,面向天文数据管理需求,应用信息学科知识来解决天文海量数据管理中的高效存储与检索、高速数据传输以及归档难题。为天文海量数据管理解决了部分关键问题,这在一定程度上有利于提升天文海量数据管理的总体功能。研究成果也为有类似数据管理需求的应用领域提供了参考,具有一定的理论价值和工程应用价值。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/90556x/201707/672695941.html</t>
+  </si>
+  <si>
+    <t>基于 RNN 的空气污染时空预报模型研究</t>
+  </si>
+  <si>
+    <t>范竣翔， 李琦， 朱亚杰， 侯俊雄， 冯逍 - 测绘科学, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 缺乏对时序特征状态建模的问题,该文构建了基于缺失值处理算法和RNN（循环神经网络）
+的时空预报框架。对空气污染物时序数据设计了3 … 【收录】, 中文科技期刊数据库 … 详细. 同期文献
+测绘科学 《测绘科学》 Science of Surveying and Mapping 2017年第7期 期刊详细信息. 时空大数据 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2VvJkTRJ3THNjVz8UZMVWWyk0NOxUM6dGdPFjSC1kWzlVWuxkWM90T2QjQNFVboRTZXZ3TyFkRxBnS=0zd5wUbnhDeCVXe3hTUzUkbB1USrYkaY9ib48ke3QXdwNHVZBzYTFXQNNWTSl2b1lzSjdXWrYHMwV&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于RNN的空气污染时空预报模型研究</t>
+  </si>
+  <si>
+    <t>针对空气污染物时间序列中包含缺失值以及现有时间序列预报模型缺乏对时序特征状态建模的问题,该文构建了基于缺失值处理算法和RNN(循环神经网络)的时空预报框架。对空气污染物时序数据设计了3种缺失值处理算法(前向递补、均值替代和权重衰减),用缺失标签和缺失时长对缺失值建模,并在此基础上搭建含有全连接层与LSTM层的深度循环神经网络(DRNN)用于时空预报。使用深度全连接神经网络(DFNN)作为DRNN的对照,用京津冀区域的空气质量和气象数据训练模型,并比较不同模型的预测精度。通过实验,比较了3种缺失值处理方法的效果,结果表明,LSTM在空气污染时空序列预测上的表现优于传统的全连接神经网络层,证实了提出的基于深度学习的时空预报框架的有效性。</t>
+  </si>
+  <si>
+    <t>http://www.joca.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=22555</t>
+  </si>
+  <si>
+    <t>基于双向 LSTM 的 Seq2Seq 模型在加油站时序数据异常检测中的应用</t>
+  </si>
+  <si>
+    <t>陶涛， 周喜， 马博， 赵凡 - 计算机应用, 2018 - joca.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 不适用于加油站时序数据。 1.4 基于非线性变换的模型 基于非线性的模型主要针对多维大型数据库
+的异常检 测问题，通过神经网络较强的学习能力来计算异常数据的偏 离度。在过去的几年里，深度
+学习在数据挖掘和分析方面取 得了很大的进展，并提出了各种有效模型。对于序列数据往 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=lUYdkWElERYR0dMlkW0tyNWZTdZ9COzEWU6BjUDJHUKl0aWFXaUlWenBFUYVzRJpUSHBlZtRnZSl2Y=0zZ3plTSV1NWNUc5Q1NwBlWCBFR1wkaadWbhBjdalGcEhGTGdHUaZnYQRUUY9GZK1WbvkEO0YHd1B&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于双向LSTM</t>
+  </si>
+  <si>
+    <t>加油时序数据包含加油行为的多维信息,但是指定加油站点数据较为稀疏,现有成熟的数据异常检测算法存在挖掘较多假性异常点以及遗漏较多真实异常点的缺陷,并不适用于挖掘加油站时序数据。提出一种基于深度学习的异常检测方法识别加油异常车辆,首先通过自动编码器对加油站点采集到的相关数据进行特征提取,然后采用嵌入双向长短期记忆(Bi-LSTM)的Seq2Seq模型对加油行为进行预测,最后通过比较预测值和原始值来定义异常点的阈值。通过在加油数据集以及信用卡欺诈数据集上的实验验证了该方法的有效性,并且相对于现有方法在加油数据集上均方根误差(RMSE)降低了21.1%,在信用卡欺诈数据集上检测异常的准确率提高了1.4%。因此,提出的模型可以有效应用于加油行为异常的车辆检测,从而提高加油站的管理和运营效率。</t>
+  </si>
+  <si>
+    <t>http://www.cnki.com.cn/Article/CJFDTotal-MTXB202001007.htm</t>
+  </si>
+  <si>
+    <t>基于深度学习的大采高工作面矿压预测分析及模型泛化</t>
+  </si>
+  <si>
+    <t>赵毅鑫， 杨志良， 马斌杰， 宋红华， 杨东辉 - 煤炭学报, 2020 - cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 阻力数据以及利用工作面推进过程中矿压显现的时序特性,采用 … 矿压规律为研究对象,
+对工作面支架工作阻力、支架不平衡力、支架安全阀开启情况及初次来压与周期来压等矿压显现
+规律进行分析;基于建立的数据库,预测了 … 泛化能力,在采用布尔台42103大采高工作面、上湾矿12401 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=XODljbYl1KHhFWQpWNUJjQVpWRzgDMtVnTsRlTntiS2k3b44EdOVHd1Q2MYNjYj9iV1YXTEFWWXVlQ=0DM6lkMw00MrdUSkh3VaZDMRxmR2FlNDtGM6hDWHZnQoh2bphnRLxESOpGNnhkajtSN0QHcRFXThl&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>综采工作面矿压显现的分析与预测对于复杂地质条件下工作面顶板管理,保证矿井生产安全具有重要意义。采用关系型数据库储存液压支架工作阻力数据以及利用工作面推进过程中矿压显现的时序特性,采用SQL语言,运用长短时记忆网络(Long Short Time Memory,LSTM)深度学习方法,以红庆河矿31101大采高综采工作面矿压规律为研究对象,对工作面支架工作阻力、支架不平衡力、支架安全阀开启情况及初次来压与周期来压等矿压显现规律进行分析;基于建立的数据库,预测了红庆河大采高工作面矿山压力,预测结果表明LSTM方法较BP神经网络预测更具准确性。为进一步讨论本研究采用的LSTM网络模型的泛化能力,在采用布尔台42103大采高工作面、上湾矿12401大采高工作面少量矿压数据的前提下,使用迁移学习方法,对矿压数据进行预测检验,结果表明:LSTM模型具有很好的泛化能力,相比于不使用迁移学习方法,迁移学习可提高模型的泛化能力。最后,探讨了模型在3个大采高工作面矿压预测表现的差别,发现数据量本身对模型预测行为影响较大,增大数据量可弥补原始数据缺失等问题。在预测模型基础上设计了周期来压预警模型,集成形成相应矿压分析与预警系统,经工程验证判定预警系统分析效果良好。</t>
+  </si>
+  <si>
+    <t>http://ch.whu.edu.cn/cn/article/doi/10.13203/j.whugis20180404</t>
+  </si>
+  <si>
+    <t>海量监视数据云存储服务模型的设计与实现</t>
+  </si>
+  <si>
+    <t>孙超， 肖文名， 曾乐， 白金婷 - 武汉大学学报● 信息科学版, 2020 - ch.whu.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… doi: 10.13203/j.whugis20180034. [4], 李绍俊, 杨海军, 黄耀欢, 周芹. 基于NoSQL数据库的空间
+大数据分布式存储策略 . 武汉大学学报● 信息科学版, 2017, 42(2): 163-169. doi:
+10.13203/j.whugis20140774 … [9], 尹晖, 朱锋. 时序数据去噪中的小波策略及评价指标 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=rAzdlR3SLtyaQtkSHBzRXJFeytmRrRkb2Q1YCB1cRt0KzpUQF9kWWt0Z1A3SN50TwNDUHlVb4hlWLFETz4mMOBVciVlYRllbBNjaRFzalFVM0R1UmZnc2oEazZnZsZHa6Z1YBZlQQh1aZR2TodTN6hmbxUUWJV0K&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>集约化监控有助于全面把控业务信息系统运行情况与提升运维效率,已成为大型企事业部门业务监控的发展方向,但集约化监控带来海量监视数据的存储与服务挑战。以气象部门业务监视数据为例,在分析监视数据的特点及对比海量数据存储服务技术的基础上,设计和实现了海量监视数据云存储服务模型,主要通过时序数据存储技术和索引存储技术分别存储指标类和日志事件类监视数据,并实现存储优化。对该模型的应用效果测试分析表明,所提海量监视数据云存储服务模型具有高效存储服务性能以及可扩展性稳定的特点。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/94183x/201709/672011920.html</t>
+  </si>
+  <si>
+    <t>ODPS 平台下的电力设备监测大数据存储与并行处理方法</t>
+  </si>
+  <si>
+    <t>朱永利， 李莉， 宋亚奇， 王刘旺 - 电工技术学报, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 工程技术 &gt; 电气工程 &gt; 发电/电力网/电力系统 &gt; 摘要 …
+的手段。尝试利用阿里云开放数据处理服务（ODPS）存储并加速电力设备监测大数据分析过程。
+以变压器局部放电（PD）数据相位图谱分析（PRPD）为例,提出了适合高采样率、时序性强 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=ne190Ralje0VFcYpGRBFlRkdkVm5kbnZjU3hzLyl0bqFnUspUU0t2NRZ3TOJ3ZmZTStVnYXJWSkJUa=0DOqJ0SNdmWQBXdzgEShZndzJTdQJTQBJ0NYl2dLVXOqdWT4hWbzQWS2g3YLh3TxEXZ5ZzQ0VjYsR&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>ODPS平台下的电力设备监测大数据存储与并行处理方法</t>
+  </si>
+  <si>
+    <t>计算性能是制约电力大数据应用(基于大数据的故障诊断、预测等)的关键问题。利用分布式存储、并行计算加速此类数据密集型应用是目前较有效的手段。尝试利用阿里云开放数据处理服务(ODPS)存储并加速电力设备监测大数据分析过程。以变压器局部放电(PD)数据相位图谱分析(PRPD)为例,提出了适合高采样率、时序性强的局部放电信号数据存储方法。采用ODPS扩展MapReduce模型(MR2)设计了"Map-Reduce-Reduce"方式的PD信号宏观特征提取方法,提出了并行化PRPD分析算法(ODPS-PRPD),实现了大量PD信号的并行基本参数提取、统计特征计算与放电类型识别。在实验室中构造了4种放电模型并采集了大量PD信号,分别在ODPS平台上和实验室自建的Hadoop平台上进行了性能评估和成本分析。实验分析和结果表明,ODPS-PRPD将大量的中间过程数据(PD谱图数据等)一直保存在内存中,相比自建Hadoop MapReduce平台性能明显提升,并在数据可靠性、服务可用性以及成本方面具有明显优势。</t>
+  </si>
+  <si>
+    <t>https://www.geirina.net/paper/Multi-time%20Scale%20Data%20Analysis%20Technology%20for%20Smart%20Distribution%20and%20Utilization%20System%20with%20Multi-source%20Data%20Integration.pdf</t>
+  </si>
+  <si>
+    <t>融合多源数据的智能配用电多时间尺度数据分析技术</t>
+  </si>
+  <si>
+    <t>刘广一， 周建其 - 供用电, 2018 - geirina.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 的数据集成到基于图、关系和时序数据库的统一数据模型中，并通 过数据清洗提高数据质量，然后
+应用数据模型分析该数据。目前智能电表等不同 来源的数据在系统中融合、转换和分析后可实现
+用户画像功能、电网运行与资产 管理功能、用户服务与社会服务功能。 智能电网大数据的空间 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2RvgkRRx2ZIp2Qad1batCbzB1MPBjT2RVbmlTRDlUeIZ1K0JnUmJTVF5kZkF0MLRjbzsEd3Rld5VFR=0TTrNUSw9WajFFNHRGRDdXVrtkVwcmU6d0c2gTaQNzMFpXQht2YNhFWQJXM4pUVvMWRo1kYvZUZ4J&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着分布式发电、储能和需求侧响应负荷的不断发展,传统的被动型用电网正在逐步演变为具有主动调节能力的主动配电网。为了充分发挥主动配电网的主动调节能力,需要在配用电网中安装智能电表、远程测控终端和配电网同步测量等数据采集装置,建设配电、用电、客服、营销等信息管理系统。这些数据采集装置和系统的建设,在配用电领域产生了大量的数据。文章在讨论智能配用电大数据来源、生命周期及数据特征的基础上,从数据集成平台、智能电网统一数据模型、多源数据在线、数据分析算法库、用户画像、机器学习算法等角度分析了智能配用电大数据分析的关键技术,然后提出了智能配用电大数据分析在电网运行、社会服务和用户服务方面的典型应用。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/94505x/202006/7102128814.html</t>
+  </si>
+  <si>
+    <t>西部地区农业碳排放的时空演变及 EKC 假说检验——基于西部大开发 12 省份动态面板数据模型的经验分析</t>
+  </si>
+  <si>
+    <t>廖卫东， 刘淼 - 世界农业, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 人文社科 &gt; 财经 … 西部地区农业碳排放的时空演变及
+EKC假说检验——基于西部大开发12省份动态面板数据模型的经验分析 … 2017年中国西部地区12
+省份的面板数据,测度了西部地区农业碳排放,揭示了西部地区农业碳排放的时序演变和空间 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2wkcHF1Lk1UaykVMBJFN2hTcxUnYaJ1VKpERV52L6FVOFZzS1N3bHF0V59UUOF1d28UTkxUVUlURhNWQRd2ZiRTezczZkNUaM5UT6xmUzhjU1gFUKp1TYJlTFZ1cnJ0a19mRWJHVSlHcR5UVmtCZE9keSljUaRGT&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>西部地区农业碳排放的时空演变及EKC假说检验</t>
+  </si>
+  <si>
+    <t>基于2000—2017年中国西部地区12省份的面板数据,测度了西部地区农业碳排放,揭示了西部地区农业碳排放的时序演变和空间格局的变化特征,进而采用动态面板数据模型对农业碳排放的EKC假说进行检验,并着重分析了城镇化水平和第三产业占比等经济变量的影响效应。研究发现,2000—2017年中国西部地区农业碳排放呈现出"快速上升—急剧下降—缓慢上升—快速下降"的4阶段特征;中农业碳排放区和低农业碳排放区的空间格局基本稳定;高农业碳排放区和偏高农业碳排放区呈现出明显的动态演变趋势;西部地区农业碳排放的EKC假说不成立,农业碳排放与农村居民收入呈正U形关系;西部地区农业碳排放存在明显的惯序性,与第三产业占比的关系呈现倒U形。得到启示,持续推进西部农业向规模化、集约化模式,甚至绿色化、智能化模式转型发展,以及增加农村居民非农就业收入,是实现西部农业碳减排,推进大开发下西部地区绿色发展的基本路径。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10066-1020900376.htm</t>
+  </si>
+  <si>
+    <t>基于大数据管理的中职学校招生信息系统的研究与开发</t>
+  </si>
+  <si>
+    <t>杜宏华 - 2020 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 大数据管理在招生信息管理中的理论价值和技术难点,在业务流程分析基础上提出系统功能需求,
+从安全性、兼容性和可扩展性角度提出系统非功能需求。在招生信息管理系统设计开发过程中,通过
+活动时序图对核心功能模块处理过程进行设计,提出了实体关系模型和数据表结构等数据库 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=45mbvtiNwk3KU12dyZFS1NWdq9kUqNXbaVndLdkSG52cJBjep10Z2B3Yzh2cOFlMURWMsJnblFDUsN2RqR2cKp1T9klct1kdRlTQuh1cyAFTSpWbysCRhdzdWJVcCZFNZpXapR3bpRHZ4xUSzkkRF5We6N0TpRDVZljYwA3RrMEaz8GU&amp;tablename=CMFD202002&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>提升中等职业学校招生信息平台建设水平,不仅是国家和社会交给相关研究者和技术人员的责任,更是为学生、家长以及全社会提供一个公开、透明的良好人才培养环境的历史使命。近年来,随着大数据管理的研究和应用不断深入开展,各类学校的数字化校园建设和信息化平台已经全面推广应用,起到了简化工作流程、提高工作效率、提升用户体验等多方面效果。在学校数字化信息化平台中,招生信息管理系统作为向报考学生和家长展示学校面貌,与报考学生直接接触的信息管理系统,一定程度上体现了一个学校的信息化建设水平,一套运行稳定、界面风格整洁、操作清晰易用的管理系统能够大大提升学生家长对于学校的认同感,同时在招生流程管理方面能够实现规划化和系统化。研究并利用更加先进的大数据管理相关理论和技术手段,提高中职学校招生管理水平,为精准招生管理提供支持是摆在教育研究工作者面前的机遇和挑战。本文对大数据管理技术在中等职业学校招生管理中的相关理论和技术进行研究,从大数据管理角度分析了中职学校招生管理的需求,包括“数据中心三位一体”的管理特点、“数据传输双向驱动”的管理流程,进而提出面向“三横两纵数据管理主线”的招生系统总体架构。在此基础上,设计开发了中职学校招生信息管理系统,并以北方机电工业学校为具体研究目标和应用对象,面向全社会开放学校相关的招生信息和招生服务指导,提供学校专业设置和师资力量介绍。本系统可以实现院系设置管理、教学环境与师资信息管理、招生宣传工作管理、往年招生情况数据统计分析等功能,实现招生宣传与管理的网络化、规范化、系统化,提高中等职业学校招生服务管理水平。本文以北方机电工业学校为具体案例,紧紧围绕大数据管理在招生信息管理中的理论价值和技术难点,在业务流程分析基础上提出系统功能需求,从安全性、兼容性和可扩展性角度提出系统非功能需求。在招生信息管理系统设计开发过程中,通过活动时序图对核心功能模块处理过程进行设计,提出了实体关系模型和数据表结构等数据库设计,从系统门户和处理逻辑提出了招生信息管理系统的详细设计方案。最后选取典型界面介绍了招生信息系统实现效果,采用黑盒测试方法对主要功能点进行系统测试,分析了测试结果,并选取同类型软件系统进行了对比分析。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/97360a/201716/672929165.html</t>
+  </si>
+  <si>
+    <t>基于大数据的教育趋势化推导模型设计与实现</t>
+  </si>
+  <si>
+    <t>邹志洪 - 现代电子技术, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 期刊数据库》 &gt; 工程技术 &gt; 电子电信 &gt; 通信 &gt; 摘要 基于大数据的教育趋势化推导模型设计与实现.
+《现代电子技术》2017年第16期 | 邹志洪 铜仁学院 贵州铜仁554300 … 第1页; 第2页; 第3页. 论文服务：.
+摘要：设计教育趋势化推导模型，进行教育质量和信息评估。提出一种基于大数据时序逻辑 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=EV4EUOqRmTyQVd1lncVpVTOFkZPREaqdEUtdTdvNFRywkSDl2ZaplU4gmdKJTOUZnTp1mSqx0QOFld=0TStRmQh9iTaZTW1AXbOFFO1EkYwcVbwx2Lxd0LtFDOWdWUtVXZtdDdOxUchFFcHh1Y3RTOa5kVp9&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>设计教育趋势化推导模型,进行教育质量和信息评估。提出一种基于大数据时序逻辑控制和系统总线传递的教育趋势化推导模型设计方案。首先进行系统总体设计构架,主要包括教育大数据信息存储模块、总线控制模块、上位机通信模块以及网络传输模块。然后进行教育趋势化推导模型的软件开发设计,以嵌入式Linux为平台进行教育趋势化推导模型四个层次软件的移植,通过大数据信息调度,为模型提供足够的资源编译软件来实现推导模型的安装和运行。最后进行程序加载和仿真测试,结果表明,采用该模型进行教育趋势化推导分析,数据调度的测准率较高,教育信息评估预测性较好。</t>
+  </si>
+  <si>
+    <t>http://ckyyb.crsri.cn/EN/article/downloadArticleFile.do?attachType=PDF&amp;id=5070</t>
+  </si>
+  <si>
+    <t>水利工程灌浆大数据平台设计与实现</t>
+  </si>
+  <si>
+    <t>饶小康 - 长江科学院院报, 2019 - ckyyb.crsri.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 类，进而完成以往需要人的智能才能胜任的复杂工 作的理论与方法。 人工智能算法主要有回归分析、
+聚类分析、关联 分析、时序模式分析 … 结果及说明性文档存储至HDFS或关系型数据库，
+通过RESTAPI（表现层状态转移接口）实现与应用 … 集的一个重要特征，水 利工程灌浆大数据特征维度 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=lcQFnQhpGWThGUZpUUt92SxQmVJpUNPN0VhBjT3IWRJ9GTSdGU1cjT2lHUKtiNENlR4JlRG1WcI52b=0TT6pkdZBFU3Fla2kWenl3VHFkS5IGSplGatdGU0IkZjNUbwhUY1VVaXdENzVFZwoHMhVnRmljNOF&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着云计算、大数据、物联网的发展,水利工程各类采集数据与日俱增,面对如此大规模的数据集,传统存储、计算相关的理论和方法已不能满足海量、多源、异构数据的存取与处理。针对水利工程灌浆大数据,设计平台总体架构,搭建Hadoop分布式集群,设计并行化数据挖掘算法,实现水利工程灌浆大数据平台,并基于B/S服务模式进行平台展现、应用和管理。平台功能模块主要包括数据资源下载、数据集上传与运行、自定义算法、运行状态及结果和大数据可视化等,并结合白鹤滩水利工程建立基于随机森林的灌浆工程单位注入量预测模型和基于K-Means聚类的灌浆成果异常检测模型进行应用示范。平台的设计与实现融合水利工程结构化与非结构化数据,将大数据集群并行计算和数据挖掘技术应用到水利工程中,改变传统随机抽样和单一挖掘分析模型,采用多粒度、多层次、多渠道的分析模型对数据全量进行挖掘分析,从海量数据中挖掘分析出于管理、决策和生产有用的信息,实现了数据资源的集成共享、业务的高效处理、数据信息的知识发现,提高了数据存储和处理效率和精度,为当前水利工程大数据的存储与计算提供一种新的解决思路。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10220-1019079330.htm</t>
+  </si>
+  <si>
+    <t>神经网络时序分类方法在语音识别中的应用研究</t>
+  </si>
+  <si>
+    <t>王雨萌 - 2019 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 的深入以及大数据语料的不断积累,语音识别技术得到突飞猛进的发展,神经网络开始大规模应用 …
+记忆时序网络,替代固有的单向长短期记忆时序网络,通过对语音特征进行双向提取,从而提高
+模型的准确率。最后,选取希尔贝壳公司的AISHELL语音数据库对本文 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=kMhVGZI1kWj50SNJlVzcnNzdWO5YWe6pGbiRETodVZIxkN5FkMo9WSyVHOSFlM08UYDllRCBFSpRFc=0DNBVXdJVVUEpFcJVDcKl0YzRjToVDS1gHdRJFMGZ3YuZVSKdEcZJXSvMHc0IGW4InMVRjcMN2Mv5&amp;tablename=CMFD202001&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着人工智能领域研究的深入以及大数据语料的不断积累,语音识别技术得到突飞猛进的发展,神经网络开始大规模应用于语音识别技术,端到端语音识别成为近年来人工智能研究的热点课题。然而,由于特定说话人含有不同发音特性、不同语种发音特性不同等原因,导致端到端语音识别模型对中文的识别准确率偏低。基于以上背景,本文结合中文语言模型对现下主流端到端语音识别框架的结构进行研究和改进,以提高端到端语音识别框架对于汉语的识别准确率和效率。首先,本文设计基于传统隐马尔科夫-混合高斯声学模型结合词典和N-gram语言模型的建模方法作为本文的基线实验。在对隐马尔科夫-混合高斯模型的研究中,对语音信号易于受到上下文内容影响的问题,设计利用上下文相关的三音素声学模型,通过考虑每一音素相邻的前后音素,进而提升模型性能。同时,对语音易受到说话人发音特性影响的问题,设计融合说话人自适应技术的隐马尔科夫-混合高斯模型的建模方式,以提高本文基线实验的识别准确率。其次,本文针对端到端框架对中文识别准确率较低的问题,提出结合语言模型的非完全端到端框架的语音识别方法,将非完全端到端框架应用于神经网络时序分类方法对语音识别的研究中。针对LSTM-CTC端到端模型计算复杂度高,训练速度耗时过长的问题,本文提出了一种改进的映射长短期记忆时序网络,用以优化模型的训练速率。同时针对语音特征的长时依赖性并不只有正向传播的特点,在端到端模型中设计采用双向映射长短期记忆时序网络,替代固有的单向长短期记忆时序网络,通过对语音特征进行双向提取,从而提高模型的准确率。最后,选取希尔贝壳公司的AISHELL语音数据库对本文所提出的方法进行实验验证,针对实验过程中双向神经网络训练易产生过拟合的问题,将语音数据库通过速度扰动技术进行扩充、实验。最终实验结果显示,模型的准确率和速率较基线实验结果都得到显著提升。</t>
+  </si>
+  <si>
+    <t>http://www.itapress.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=280</t>
+  </si>
+  <si>
+    <t>基于模型检测方法的中文专利法律状态数据清洗研究</t>
+  </si>
+  <si>
+    <t>吴鹏， 张叙， 路霞 - 情报理论与实践, 2018 - itapress.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 构建了基于时序关系的法律状态 分类体系' 法律状态信息数据库模型" 设计了专利法律状
+态信息清洗框架 … 清洗研究提供了L 可行的方法 体系" 同时也为其他具有时序特征的 … 
+这是因为对于错误序列而言" 其数量本身较少" 而对于出 错原因的分析则依赖人工参与&amp; 如果面对 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=3SZxkRJtSQQVmU4hjY1UUTUdXRZlTdaBXeCNlVFpFduJjM5J3MENWYL1mR0JHUvhEUzUGRjxkamNFT=0DOyU3LOZmbypGZ0pXWTRmYCNUTF9GM090UG5UQGV3V1hHUIBjerEjeI5kZ59kQJNzViJXQplEONh&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>[目的/意义]专利法律状态信息具有时序特征,其清洗工作要求保证法律状态个体的正确性和状态之间时序关系的合理性,文章设计了一个时序关系数据清洗框架,识别出专利法律状态数据中所隐藏的时序逻辑问题。[方法/过程]利用模型检测方法对法律状态信息数据库建模,构建基于时序关系的法律状态分类体系、法律状态信息数据库模型,设计专利法律状态信息清洗框架;对专利法律状态信息时序演变关系进行抽取、描述和检测。结合实证研究对提出的框架进行验证,发现专利法律状态信息在时间序列方面的常见错误模式。[结果/结论]文章设计的数据清洗框架能够将抽象的计算模型与复杂的数据清洗流程进行有机结合,为数据清洗的自动化和智能化提供了新的视角。[局限]文章设计的数据清洗框架对于出错原因的分析依赖人工参与,后续研究可关注对专利法律状态出错原因的自动分析。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/87171a/201601/83778369504849544849484949.html</t>
+  </si>
+  <si>
+    <t>油气生产大数据挖掘系统的研究及应用</t>
+  </si>
+  <si>
+    <t>檀朝东， 张恒汝， 马永忠， 杨兵， 王辉萍 - 数码设计, 2016 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 【分类】, 【工业技术】 &gt; 石油、天然气工业 &gt; 油气田开发与开采 &gt; 基础理论 &gt; 
+模拟理论与计算机技术在开发中的应用. 【关键词】, 智能油田 大数据 灰色关联 聚类分析
+时序预测. 【出处】, 《数码设计》2016年第1期 49-52页共5页. 【收录】, 中文科技期刊数据库 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=kT4wkRJFDcaJkSwUlUt1kTzoWYXNnd6p0YmpXbQVkQNN2KtJDa5JzNzUmbEh3QsF3bVVXcBJWYIJ0R=0zZRVGbDlGZkBzcCNTWmd0ctF1c5A3Y4Y1Z0hVOslHb4VjZRNTOtpFZuF3Y3UkaoBnUW9mTkNnRRJ&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着智能油田建设的不断推进,油气生产数据呈爆炸式增长。由于其数据结构复杂,形式多样,以及数据深度分析需求的增长,为挖掘工作带来了机遇与挑战。本文采用数据融合技术,搭建复杂油气生产过程的大数据挖掘平台,根据特定的挖掘目标,建立专题数据库,快速定制相应数据挖掘算法和石油工程业务模型,形成适应用户需求的数据挖掘应用系统,实现油气生产智能化诊断、预测、优化及辅助决策。</t>
+  </si>
+  <si>
+    <t>http://www.infocomm-journal.com/bdr/EN/10.11959/j.issn.2096-0271.2017060</t>
+  </si>
+  <si>
+    <t>面向智能电网的电力大数据存储与分析应用</t>
+  </si>
+  <si>
+    <t>崔立真， 史玉良， 刘磊， 赵卓峰， 毕艳冰 - 大数据, 2017 - infocomm-journal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 作为一种分布式文档存储数据库， MongDB可以存储比较复杂的数据类型， 本节提出通过对不同
+类型的采集数据采 取 … 问题，并采用FP-Growth算法[23]挖掘频 繁项，图8为异常指标关联分析示意，
+横坐 标为异常指标时序，纵坐标为用于分析的 异常指标 … 5 基于大数据的配网运营能力业务 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=3YSpWSrIHS14GauJ2a1h3RnVlNx40LRBXO3k0TZJlRvcGM10keMNGcwJmVrNEMNt0KadkSiFkSWFGa=0zbWZDV1w2dtBXOwkDTxc0RrgzKzZHTUhEayI0MZ9ybld2R0UVWldzVPV2cxN3UXN0NhxUSyV2YSJ&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>阐述了智能电网面临的挑战以及大数据关键技术对电力行业的可持续发展和坚强智能电网建立的重要意义。分别从智能电网主数据管理、用电信息统一存储管理、电能质量分析、配网运营能力分析等几个典型大数据系统分析了大数据关键技术在智能电网中的应用。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10631-1019818530.htm</t>
+  </si>
+  <si>
+    <t>重庆主城区涉命案件大数据分析及其法医学应用</t>
+  </si>
+  <si>
+    <t>徐吕子 - 2018 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 在赋值后,采用结合主因子分析和logistic回归分析的智能算法对除犯罪年龄、犯罪教育背景、犯罪性别、
+现场出口、衣物状态以外的数据进行分析 … 自杀时刻的时序性分析时发现,自杀人员选择自杀的时
+刻不存在季节规律,但存在时序性规律 … 涉命案件现场重现的人工智能系统的大数据库的建立 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=nRXdj90VJRkZO1WdT12cxhUTEFjYHl1byRlYsJHUjRXYEdXUCRUQ2gTYr5WUqlURvsGatZle0hlZkF2Q2ZmathnW9kUQiF3UrpXVvBnVntST1QzLltSYlJURGlzU4F2T3kFVIFnMBlEaSpUORdTVYh1bDhHViFlUiZUOqJHdSRHeiVGT&amp;tablename=CDFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>涉命案件是指涉及人身死亡的案件,包括他杀案件、自杀案件和意外案件。研究涉命案件现场的目的有两个,一是为了进行现场重现,从而帮助案件的侦破;二是总结涉命案件发生的空间规律和时间规律,从而对案件好发的时间和地点加强管控,从而预防和减少涉命案件的发生。由于涉命案件现场是一个含有大量信息的复杂环境,因此长久以来研究此类现场的学者主要依赖于尸体检验、现场勘验和实验室检验等所发现的客观信息与走访调查得到的主观信息进行汇总并进行逻辑推理和演绎。这种通过人工分析的现场重现方法十分依赖于研究者的个人学术水平和经验,如果研究者的水平和经验不足,有可能导致现场重现失败或者错误。近年来,随着深度神经网络算法的出现,大数据与人工智能技术出现了飞跃式的发展。基于大数据的人工智能技术在解决某些可进行数学建模和优化的复杂问题中具有人力不可比拟的优势,故在自然科学和社会科学多个领域受到广泛关注。在涉命案件的现场重现时,引入基于大数据的人工智能技术进行辅助分析,可以极大限度的减少因为研究者的经验不足所导致的错误。此外,已建立的模型还可以用于预测未来相关案件发生的趋势。目前,国内外基于大数据的人工智能命案侦破系统尚未得到突破,相关大数据库的建立和模型算法的构建问题亟待研究。因此,本课题以法医现场学理论为基础,以他杀与自杀这两类涉命案件现场为突破点,选取了一些观测指标用于评判与分析,针对如何将涉命案件的现场信息构建为数据库进行了详细的研究,并对基于该数据库的人工智能算法进行了探索性研究。本课题验证了涉命案件现场信息数据化可行性,筛选出了重要的观测指标,并尝试提出用于分析推断相关案情和预测未来变化趋势的算法,为日后应用于涉命案件的人工智能现场重现技术开发提供了思路及理论依据。本课题分为两部分,第一部分是对2015年-2017年重庆主城地区所有他杀案件现场的卷宗进行系统性回顾,提取了能够反映他杀案件现场信息的19项(血迹分布、现场位置、现场入口、现场出口、现场财物丢失、尸体姿势、案发时间、致命伤位置、致伤工具、被害人性别、衣物状态、被害人教育背景、被害人年龄、罪犯年龄、罪犯教育背景、罪犯性别、凶器来源、凶器是否被带走、罪犯进入现场方式)描述性观测指标。在对这19项描述性观测指标进行数值化的过程中,引入动线概念对其中血迹分布、现场位置、现场入口、现场出口、现场财物丢失、尸体姿势6项指标进行定义、分类和赋值,并对其余指标依据法医现场学理论进行赋值。在赋值后,采用结合主因子分析和logistic回归分析的智能算法对除犯罪年龄、犯罪教育背景、犯罪性别、现场出口、衣物状态以外的数据进行分析,构建了推断案件类型,犯罪年龄,犯罪教育背景的数学模型,证实了对他杀案件现场信息进行分类赋值方法的有效性和实用性。同时本部分还提出了一种通过叠加同类案件被害人尸体损伤并绘制热图的方法,借助可视化信息对不同分类方法下不同类型案件尸体损伤特点进行总结。本课题的第二部分分别采用空间分析和时间分析对2013年1月-2017年12月重庆主城地区所有自杀案件进行分析,总结了自杀案件发生的时间特点和空间特点用于预测未来同类案件发生的趋势。空间分析采用两种分析方法:一是最小二乘法分析自杀案件的发生和所在区域的社会、经济情况之间的联系;二是将自杀地点转化为标准地理坐标后采用核密度分析法分析自杀案件在地理空间上分布的特点。时间分析采用时序性分析法,对自杀案件发生的月份和时刻进行建模及预测。结果显示,自杀案件的发生和所在区域能反映社会、经济情况的指标(常住人口、人均可支配收入、高级中学数量、失业人数、低保人数)之间关系并不密切,在研究自杀案件的现场时不需要考虑此类指标;但是地理分布上,不同自杀方式的现场分布具有各自的特点。对于自杀方法为高坠和自缢的案件,其地理分布属于多中心聚集;而自杀方法为服毒和溺水的案件,其地理分布为散在分布。此外,在本课题还发现自杀场所的选择上,绝大部分人选择在家中自杀,其次是室外场所。通过对自杀案件发生月份的时序性分析时发现,自杀案件的发生不存在季节性规律,但存在时序性规律;对自杀人员选择自杀时刻的时序性分析时发现,自杀人员选择自杀的时刻不存在季节规律,但存在时序性规律。本课题通过对他杀案件和自杀案件的研究,提出了用于涉命案件现场重现的人工智能系统的大数据库的建立方法和用于预测涉命案件时空未来变化趋势的基本算法,具有重要的理论意义和实用价值。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/96474x/201704/671878273.html</t>
+  </si>
+  <si>
+    <t>贝叶斯时序模型在经济预测中的应用——以甘肃省人均 GDP 为例</t>
+  </si>
+  <si>
+    <t>张静 - 中国统计, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 【关键词】, 人均GDP 经济预测 甘肃省 时序模型 贝叶斯 应用 … 【收录】, 中文科技期刊数据库 … 同期文献
+中国统计 《中国统计》 China Statistics 2017年第4期 期刊详细信息. 认真学习贯彻全国“两会”精神;
+货物净出口不变价核算问题研究; 大数据背景下人工智能如何服务于政府经济决策 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2MP9yZ3ETUntUU6NUOa12ZpdzVLlVawBHNmFje5hnSEF1TlZlaRNUcVNVZ3Z2UwwWTLRndHJmdYR1U=0TTzw0Yk9GUipFNPJUR2xUdHNlbRB1cLV0NOV2YGVFOPh1ZJt0cxYzVBR0KpRTV0Z3b3lVbwxmR48&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>贝叶斯时序模型在经济预测中的应用</t>
+  </si>
+  <si>
+    <t>&lt;正&gt;人均GDP既考虑了经济总量的大小,又结合了人口多少的因素,因此是一个客观反映一个国家或地区发展水平的重要经济指标。2016年是"十三五"开局之年,中国经济步入新常态背景,甘肃经济也与全国一样面临"增速换挡""动力转换""结构优化"的新态势,合理预测"十三五"时期甘肃省人均GDP状况和发展趋势,将为政府及有</t>
+  </si>
+  <si>
+    <t>http://www.zjujournals.com/sci/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=4506</t>
+  </si>
+  <si>
+    <t>云端结合的书法大数据平台</t>
+  </si>
+  <si>
+    <t>杨颐， 李国清， 王健， 王海军， 翟翊辰… - 浙江大学学报 (理学版 …, 2020 - zjujournals.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 为书法体验网站提供用户体 验所需的关键功能服务： • 书法作品集协同创作与竞技：书法作品集的
+内容结构管理和检索、作品发表时序结构管理 … 对楷书和行书的书法字 内容识别基本达到了可用的程度。
+将被识别出的书 法字保存在数据库中，可 … 对书法大数据平台进行了实验和分析。实验重 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=FMJdDbGhUePBnUmJUQz82VjRTR1MWYyNVZvR0ZMpEdotUb4B1L510L5YFSwYFd0JDWzc0cBJVQklEV=0TVjZXQ5IWOMRjMXBFdDRmSU5EbatCdmZFWodlW4hFVwklYkh0K5omT3AlT450a210M0pVe2BlQEd&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于文化强国的国家重大战略,为满足传承和创新我国传统文化这一重要需求,实现文化休闲与共享、书法普及与教育的具体目标,研发了基于大数据和人工智能等核心技术建构的云端结合的书法大数据平台。平台连通了线下和线上的信息通道,实现古代经典与当下书写的智能对接、线上与线下作品的共创共享以及个体创作与群体创作的有机结合。在此基础上,实现了数字书法创作与交流、作品集的生成与推广、线上线下协同创作、书法作品的智能竞技、书法创作数据分析等形式的智能书法服务。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/97175a/202006/7102259990.html</t>
+  </si>
+  <si>
+    <t>在线学习行为多模态数据融合模型构建及实证</t>
+  </si>
+  <si>
+    <t>王丽英， 何云帆， 田俊华 - 中国远程教育, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 人文社科 &gt; 教育 … 模糊等问题,全面感知和反馈在
+线学习过程状态,本研究构建了一种在线学习行为多模态数据融合模型 … 该模型利用自动化操作行为
+事件监听、表情识别、生理特征监测等原理,从行为、情绪和认知3个维度进行时序数据同步融合 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=FTQZURGZFNrBzMKtyZxcncQd2Y3FnUzVlURRnYs52K0F1YzETaOdlMZlUTTZzQGB1UCpFdRR3R2BVV=0zb6RkbQNVcjB3Y5ZnW0tCUWB1SI1EOmp1LMBzNClVRSpHMN9GesVHeVlWZ1o3NwQHZoh2QuF2d1k&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>显性化测量与评估在线学习行为和情感状态是学习分析领域的研究热点。为克服单模态数据分析片面和多模态数据融合模糊等问题,全面感知和反馈在线学习过程状态,本研究构建了一种在线学习行为多模态数据融合模型。该模型利用自动化操作行为事件监听、表情识别、生理特征监测等原理,从行为、情绪和认知3个维度进行时序数据同步融合、分层递进诊断评估和统计聚类分析;考虑到对在线学习者具有较低的侵入性和干扰性,该模型在技术实现上采用分布式物联网技术和开放式Django Web服务器部署技术,形成学习过程状态数据的自动采集、分析、融合、评估和反馈等多层体系结构;应用该系统对MOOC环境下在线学习行为评测实验,讨论了本模型的准确性、易用性和有用性等问题。研究结果表明,本研究构建的模型能够为在线学习分析提供一种有效的技术解决方案,为同类研究可提供方法借鉴与技术实现参考。</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/e3d2/18458f7c4294dee873e116b0b90f3b8f8307.pdf</t>
+  </si>
+  <si>
+    <t>一种基于制造大数据的产品工艺自适应设计方法</t>
+  </si>
+  <si>
+    <t>魏巍， 陈政， 袁君 - 中国工程科学, 2020 - pdfs.semanticscholar.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 24]，加深用户对数据 的理解，加快信息的获取速度。根据数据类型可将 数据可视化分为：高维数据
+可视化、时序数据可视 化 … 数据。这些数据在设计决策中有两方面的应用：一 是在数据库中存储 …
+为更好地了解制造大数据在产品工艺设计中发 挥的驱动作用，以数据挖掘在某汽车产品焊接工艺 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=HNWJHNXdHbrombTR1bQpVTn5mcZlWM04ENoFFc2RTWpF0b2hEdUJGUqFkbLpUNLZjeqxGczFkb2VGa=0DN5xmNodDRZxERPZHNkpUZzsGS5kFd4IHcwM3V2hTWOx2Nwl3MHVnc6VzduhFeG1Eawx0LWFVNBh&amp;tablename=CJFDAUTO&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着数字化与智能化生产方式在制造业中的广泛应用,引导企业重视并发挥制造大数据的价值对革新产品工艺设计具有重要意义。本文旨在面向企业数据与业务深度融合的应用需求,提出一种基于制造大数据挖掘的产品工艺自适应设计应用方法,用于解决企业中制造数据利用率不足等问题。以企业制造数据为起点,提出了"数据+知识+决策"的产品工艺自适应设计模式,总结了该模式的制造数据挖掘与利用流程,涵盖多源异构数据融合、数据清洗与预处理、数据变换与降维、数据挖掘、数据可视化和设计决策6个过程。最后以汽车产品焊接工艺为例,建立焊接工艺参数与焊接缺陷的预测模型,用于改善焊接工艺并提高焊接质量,实现制造大数据驱动的焊接工艺自适应设计。研究表明,制造大数据蕴含丰富的知识与模式,可以指导产品设计决策,支持实现不同制造环境下的产品工艺自适应设计;建议进一步推动大数据与第五代移动通信技术等新兴技术的结合,增加对大数据平台、算法设计平台研发的投入,激发制造大数据与产品工艺设计的更大交融。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/97867b/202003/7102248995.html</t>
+  </si>
+  <si>
+    <t>基于神经网络的流感大数据分析</t>
+  </si>
+  <si>
+    <t>陆敏， 段锦斌， 葛贤顺 - 中华医学图书情报杂志, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 工程技术 &gt; 自动化计算机 … 和趋势分析中的应用主要
+侧重于传染病早期征候大数据对于疫情 … 分析,但对于传染病早期征候及疫情演变历史的关系的研
+究依然缺失。通过构建流感征候指标体系,利用循环神经网络对流感历史数据进行时序建模 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=0U0LRBVSFhUe5cmNIJUWpNlQLRHW1QHdjRHMtV0cNdnQt5GVvkHU4p0Y6hDMTlzLDdzL51mYjRWRpJkU2VXOT9mWKN2LiJ1azQnMuVkVUZmdPJ3S1QVNnFTO5UVb5MUcRV1NS9yRtVDUoFVcCx2T1l0V4l2drcFW&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>从互联网大数据中挖掘传染性疾病的早期征候、传播趋势、演变规律,对于疫情监测及相关政策制定具有重要的现实意义。人工神经网络在区域传染性疾病监测和趋势分析中的应用主要侧重于传染病早期征候大数据对于疫情局势影响的回归分析,但对于传染病早期征候及疫情演变历史的关系的研究依然缺失。通过构建流感征候指标体系,利用循环神经网络对流感历史数据进行时序建模,并结合注意力机制挖掘不同特征对流感的关联影响,实现区域流感的准确监测和趋势分析。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/96123a/202003/7102115875.html</t>
+  </si>
+  <si>
+    <t>深部区域采矿时序的地压调控卸荷效应研究</t>
+  </si>
+  <si>
+    <t>于世波， 杨小聪， 原野， 王志修 - 黄金科学技术, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 工程技术 &gt; 矿山工程 … 深部区域采矿时序的地压调控
+卸荷效应是通过回采时序的合理 … 卸荷应力环境再造和深部采矿应力风险的渐进转移过程行为。
+基于数值模拟与微震监测相结合的互馈分析技术,实现大区域数值模拟与微震监测大数据的高度 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=nWhp3dxAjaVZDTth3av4GUoxUVPVEOUtkdsR2d2VHRNt2Ko9yYidlUycVMUJ0MKZTYLV1SSlVRJNHR=0TVNVHerEFcrtUQMVFcGZlai5WV4F1Q0hGahp0Lop0azIENoRHN1YmcEZUOLR2UKB1dsZ1Y1g3bEZ&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>深部区域采矿时序是深部地压管控的重要战略方法之一,其卸荷力学效应与回采时序密切相关。针对构建的深部由中心向四周回采的立体式大区域开采力学模型,基于应力转移过程和岩爆应力风险特征,研究从单个采场到多个采场回采过程中的应力演化规律和岩爆应力风险变化规律。研究结果表明:深部从中心到四周的立体式回采顺序能够实现采矿作业区高应力的逐步转移和应力风险的渐进推移,深部区域采矿时序的地压调控卸荷效应是通过回采时序的合理设置实现期望的卸荷应力环境再造和深部采矿应力风险的渐进转移过程行为。基于数值模拟与微震监测相结合的互馈分析技术,实现大区域数值模拟与微震监测大数据的高度融合、实时动态分析与跟踪评价,是深部区域采矿时序的地压调控卸荷效果评价的有效方法。深部开采区域时序调控卸荷效应的本质是主动创造高应力环境中低值应力卸荷区思想,这一思想已在加拿大Nickel Rim South矿得到了实践应用,取得良好的卸荷效果并实现了地压的合理管控,对于我国深部、超深部开采具有重要的指导意义。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-90115-1019247565.htm</t>
+  </si>
+  <si>
+    <t>基于创伤大数据的创伤失血性休克伤情预测预警模型建立研究</t>
+  </si>
+  <si>
+    <t>赵宇卓 - 2019 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 对时序数据进行分析及模型验证,能对创伤失血性休克进行预测预警,对模型性能进行客观评价,
+提高医护人员对该并发症的提前感知能力,实现早干预、早治疗,改善伤员预后,并为其他应用大数据
+技术开展类似临床决策支持研究提供一定参考。方法:(1)应用数据检索技术从MIMIC III数据库中 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=rI1QFNnV3AzLLBFZTN0dJB1chVVdqVENzY1Uy52Vw5EWnVmYLN1UwUHT2UVbxEkeGdXZoRVV2lGTKh0SrJXV3V1T9UUOvlXOyIFerpleElFN2RFcGJDSYd0Zs1ERvxEOMVjYKR1RHdDcHFVcEdUSwdDTPJkdx1EWhRmM28CWkt2QpV0b&amp;tablename=CMFD202001&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>目的本研究通过数据检索技术从海量创伤数据中抽取创伤失血性休克伤员数据,通过智能筛选方法提取创伤失血性休克关键指标,进而应用机器学习、深度学习算法对时序数据进行分析及模型验证,能对创伤失血性休克进行预测预警,对模型性能进行客观评价,提高医护人员对该并发症的提前感知能力,实现早干预、早治疗,改善伤员预后,并为其他应用大数据技术开展类似临床决策支持研究提供一定参考。方法:(1)应用数据检索技术从MIMIC III数据库中提取创伤失血性休克伤员数据,使用粗糙集算法对包含伤员生命体征、血常规、血气分析、凝血功能、血生化、尿常规的庞大指标数据集进行解析;进而使用元胞遗传算法进行独立重复实验,根据指标在筛选中被保留次数判定其识别能力,进而形成新的关键指标集。(2)根据被筛选出关键指标对伤情识别能力不同,即被筛选保留次数不同,对关键指标进行重组及分组,以时间序列性关键指标为分析对象,去除补缺后不能满足研究需求的指标。分别应用机器学习中的逻辑回归、支持向量机、朴素贝叶斯和AdaBoost对创伤失血性休克结局变量进行预测,对分类器模型性能进行评价,分别获得不同分组指标集下各种算法所计算出的准确率、召回率、精确率、F值,并对结果进行比较。(3)分别使用MLP和GRU两种神经网络模型,使用创伤失血性休克伤员阶梯式关键指标,即分为仅生命体征、生命体征+血气分析和生命体征+血气分析+血常规共三种不同指标组合,设置时间跨度为1小时,调整时间步长,使模型表现最优,对模型性能进行评价,获得不同分组指标集下各种算法所计算出的准确率、召回率、精确率、F值,并对结果进行比较。(4)以解放军总医院急救数据库中满足研究条件的创伤伤员数据对已建立模型性能进行客观验证,获得外部验证结果,并与内部验证结果进行实际比较,探讨模型在其他数据集中的泛化性能。结果:(1)应用元胞遗传算法进行10次独立重复属性约简试验,约简保留10次的关键指标为呼吸频率和白细胞;约简保留9次的关键指标为天冬氨酸·氨基转移酶;约简保留8次的关键指标为PC02、PH、体温、尿比重;约简保留7次的关键指标为血浆纤维蛋白原测定、收缩压、舒张压;约简保留6次的关键指标为国际标准化比值、乳酸、氯化物、葡萄糖、心率。共发掘出10组最优的关键指标组合规则。(2)将待分析时间序列指标分成包含全部指标、13个关键指标、8个关键指标、6个关键指标的共4组数据集,分别应用4种机器学习算法进行预测分析。当应用全指标数据集时,AdaBoost方法,在准确率、召回率、精确率三方面均超过90%,表现优于其他三种方法;在应用不同数量关键指标数据集时,AdaBoost在应用于包含13个关键指标的数据集时,F1.5值达到90.1%;应用于全数据集时,F1.5值达到91.8%,在4种算法中表现最优。(3)使用GRU和MLP两种神经网络模型分别在三组不同的预测预警指标数据集上进行预测,当时间跨度为1h且时间步长为5时模型表现性能最优。其中,应用GRU进行创伤失血性休克预测时,单独使用生命体征预测的F1 5值最高可达85.1%,当保证F1.5值不低于80%时,可提前2小时预测创伤失血性休克发生;使用生命体征和血气分析指标进行预测时,F1.5值最高可达86.3%,当保证F1.5值不低于80%时,可提前3小时预测创伤失血性休克发生;使用生命体征、血气分析和血常规指标进行预测时,Fi 5值最高可达90.1%,当保证F1.5值不低于80%时,可提前4小时预测创伤失血性休克发生。在使用相同指标、提前相同时间时,GRU的F1.5值均高于MLP,表面前者性能优于后者。(4)通过外部验证,AdaBoost模型在内部验证和外部验证中均取得了较好的表现性能,具有较好的鲁棒性,其F1.5值最高达0.892,与外部验证结果最为接近;深度学习算法泛化性能欠佳,仅在准确率方面与内部验证结果接近。结论:(1)关键指标筛选是开展创伤失血性休克预测预警,提高模型预测效能的重要基础,也是尽可能减少需求指标数量,优化模型的重要措施和手段。(2)使用机器学习方法能够较好地对创伤失血性休克是否会发生进行预测。当应用关键指标集预测时可能存在最适指标组合,需综合考虑指标采集的经济效益和时间效益。(3)使用深度学习对创伤失血性休克进行预测预警,引入预测时间窗,提出预测指标阶梯化概念,当仅使用可实时监测的指标且应用算法能获得较好的预测效能时,在理论上就能对创伤失血性休克实施实时动态预测预警。(4)通过外部数据集验证是检测模型综合性能和泛化性的有效方法,使用筛选获得核心关键指标时模型的泛化性能较好,说明应用元胞遗传粗糙算法筛选关键指标对于提高模型性能方面的具有重要的应用价值。总之,通过系列研究,获得了多种能够为临床创伤伤员进行失血性休克预测预警的模型算法。下一步的研究重点是进行严密的临床验证,对实际预测效果进行严格测试,不断对模型进行优化改进。</t>
+  </si>
+  <si>
+    <t>http://xbsk.bjtu.edu.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=367</t>
+  </si>
+  <si>
+    <t>大数据技术及其行业应用: 基于铁路领域的概念框架研究</t>
+  </si>
+  <si>
+    <t>马丽梅， 史丹， 高志远 - 北京交通大学学报 (社会科学版), 2019 - xbsk.bjtu.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 处理后按照特定需求对数据进行判别, 建立数据仓库,进而形成不同类别的数据库。 4.铁路 …
+传统的数据分析技术,如数据挖掘中的关联、聚类、分类、预测、时序模式、偏差分析等技 …
+建模和应用等)是与应用或需求息息相关的,通过设计不同的模型可以获得不同的分析结果。 铁路大 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=2Q5gWOO5WcCJWeVhlYHhEUxo2dFRjNyQUOCtST29idq90b5h0QIF0aL10RwUUV4AlUIRlbZh0QpNXZ=0TUYZHZ18mM0dnWCNGe550dzIGUyhTZolWZtRka3M1KiZ1M1IWMkdUa2Inbp52TnRFRxJjayV2ZV5&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>大数据技术及其行业应用:基于铁路领域的概念框架研究</t>
+  </si>
+  <si>
+    <t>在对大数据关键技术架构进行总结,对数据获取、数据处理、数据分析模型和数据应用进行描述的基础上,利用大数据关键技术平台,构建铁路大数据应用的体系架构,该体系框架包括铁路数据获取层、平台层和应用层,并刻画铁路大数据的处理流程。铁路大数据体系结构的建立将促进大数据技术在我国铁路行业的落地生效,全面提升铁路数据资源的经营开发水平,为铁路提高运输安全水平、实现客货运精准营销、提高运输效率提供参考。应结合铁路发展的需求,强化顶层设计,充分借鉴其他行业大数据应用经验,分阶段分步骤实施铁路大数据策略。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/91996x/201601/667650128.html</t>
+  </si>
+  <si>
+    <t>基于广域时序数据挖掘策略的暂态电压稳定评估</t>
+  </si>
+  <si>
+    <t>朱利鹏， 陆超， 黄河， 苏寅生， 汪际锋 - 电网技术, 2016 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 方法可为电力系统中一些传统难题提供新的解决思路。在基于大数据的暂态电压稳定评估中,
+针对动态变化趋势和特征难以准确捕获的问题,引入时间序列shapelet方法,从故障后PMU量测得到
+的动态序列中进行可靠的时序特征提取 … 关键词】, 大数据分析 时间序列 … 收录】, 中文科技期刊数据库 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=UVxkWZmhDOn12QWVUM4lTeNtyclhFbMpEeBNDahNTRqdzK4oXTrYzMN1kNG92MDVTSrJmZYdWTUdlW=0zdJlXarBTMSRFNLVzQ6RFMzN1KSd2LPFkM1BnaVh2VIdUW1pnbChVSulzYMBVaRh1QEF2ZzlzdNJ&amp;tablename=CJFDLAST2016&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>在能源互联网背景下,大数据分析方法可为电力系统中一些传统难题提供新的解决思路。在基于大数据的暂态电压稳定评估中,针对动态变化趋势和特征难以准确捕获的问题,引入时间序列shapelet方法,从故障后PMU量测得到的动态序列中进行可靠的时序特征提取。通过融入错分代价的决策树算法,调整稳定/失稳样本的权重,使评估模型尽可能降低对失稳案例漏判的概率。Nordic系统算例对整体评估方案的测试表明,分类评估模型在保证高分类性能的同时,还可提供良好的可解释性,为特定系统失稳规律认知和在线监控提供进一步指导。</t>
+  </si>
+  <si>
+    <t>http://agbigdata.aiijournal.com/CN/10.19788/j.issn.2096-6369.200109</t>
+  </si>
+  <si>
+    <t>新疆生产建设兵团棉花生产大数据平台建设与探索</t>
+  </si>
+  <si>
+    <t>吕新， 梁斌， 张立福， 马富裕， 王海江… - 农业大数据 …, 2020 - agbigdata.aiijournal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 兵团棉花生产农业大数据平台经过初步建设，已 经在新疆农业资源大数据库建设、棉田农情信息遥感
+精准监测 … 棉花市场价格时序变动、风险特征及作 用因素分析[J]. 新疆农业科学,2018,55(9):
+1755–1762 … 国内外农业科学大数据建设与共享进 展[J]. 农业大数据学报,2019,1(1): 24–37 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=rBjNrY3dn9yah9WMqJFdaFTd3RWNIp3aztWZWdXY4lVcOZ1RKF0KstSWoN3cwZVeJNFNxknc3RWZkR0cZVHS3MVWXNlchFFa4sWS2EWczk2LwYlYPJXbhlGezA3ZwZFV1tyVB5ETZ9CZLR2TvJTQ5dXa3pVdPd1Y&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>大数据技术已经成为农业向智能化发展的重要推动力。新疆生产建设兵团在农业集约化程度、规模化水平、农机装备发展、现代农业技术应用等方面一直处于全国领先水平,形成了具有地域特色的现代植棉体系。面对兵团棉花生产领域多年来积累的海量数据,如何应用大数据技术进一步提升棉花生产的智能化水平,实现棉花全产业链的健康高效可持续发展,是信息化时代加强和提升兵团屯垦戍边能力的关键问题。为了促进兵团棉花生产农业大数据产、学、研一体发展,针对兵团特有的现代化植棉体系,从农业资源、农情监测、生产管理、农机调度、市场预测五个维度出发,基于成熟的大数据存储和分析系统框架,构建了从下到上由数据层、模型层、系统层和应用层组成的我国首个覆盖棉花生产全产业链的单品大数据平台。建成后该平台拟向全疆参与棉花生产和管理的潜在用户提供棉花生产农业大数据综合管理和共享、棉花生产遥感监测、棉花生产农机作业监控与运维、棉花生产种业生产管理、棉花生产水、肥、药智能决策、棉花产品质量追溯及棉花市场预警预测服务。最后,本文针对平台研发和构建过程中在数据共享、模型升级和服务模式方面遇到的问题进行了分析,并提出了建议,以期为我国农业大数据资源共享和平台建设提供参考。</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/html/2018/12/6710.html</t>
+  </si>
+  <si>
+    <t>高性能时间序列数据库网络中间件研究</t>
+  </si>
+  <si>
+    <t>徐丹， 艾文凯 - 计算机系统应用, 2018 - csa.org.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 浪费; 其次、通用框架需要考虑过多的场景, 因此中间件过于复杂, 例如CORBA就是一个重量级框架,
+将会拖累整个时序数据库部署; 再次、传统中间件很好的屏蔽了底层操作系统相关性,
+做到通用性和跨平台, 但这是在损失一定的系统性能基础上, 因此无法满足时序数据的大数据量和 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=mUVRmbDFHS4RWNrgEdOVXV0QkRHhXewQXWvEme2hUNL90c3FzYBp0c5UTaDpVcvhEZ2ZkY0hUQPN3U=0TTzRjVUdTYYdVb4VTa1gEd1g0RWZkWwpmUlNndYFjQI1kU1QDZqhzSiJUMLJ2N1g3KGVnMz1EZ2J&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>本文研究了时间序列数据库网络中间件,总结分析了常见的网络中间件特点.根据时间序列数据库的高性能要求,对网络中间件的关键技术进行了研究,采用多个Reactor和Thread Pool的并发模型来提高线程并发度,并提出了多帧消息格式,实现消息协议的动态扩展.最后在PCS-9000时间序列数据库中实现了相关的网络中间件,达到了预期的性能指标要求.</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-82601-1019612638.htm</t>
+  </si>
+  <si>
+    <t>钢铁流程物质流, 能量流的信息表征及应用研究</t>
+  </si>
+  <si>
+    <t>徐化岩 - 2019 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 数据的统一管理平台结构;开发了包含引擎和驱动两部分的软网关(DataX);开发了具有异常过滤、
+多种存档类型、高效读写引擎以及缓存优化机制的时序数据库软件,通过轧钢过程监控 …
+证明了模型的表征能力。给出了利用该模型进行数据组织和指标计算的方法,回答了哑铃型大数据 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=FW2QDWQNzNY9CUnR2M0h1dZ1UdyZWbwBFOtFVRpdGOUBjaxRUMYZFOkRWOPtyYMhGV4NUbBVnahVFV=0DMCVnSihkRXRWdaJWQlRVR1VzNvp2d512NwhVMzI1UoxkWQxUeFpkYaxGMpxESC9EaFJUYJdGOBd&amp;tablename=CDFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>钢铁流程物质流</t>
+  </si>
+  <si>
+    <t>经过近三十年的建设,钢铁企业信息化逐步形成了五级架构模式,在工业4.0和智能制造新形势下,多级架构信息流耗散严重问题日趋凸显,如何借助大数据、CPS技术实现信息化架构的扁平化,并最终实现物质流、能量流、信息流三流协同是行业面临的新命题。本论文从钢铁生产流程的数据入手,提出大数据-小应用扁平信息化架构、物质流能量流的信息表征模型和数据组织方法,分别用生产和能源两个应用对表征模型进行了验证。(1)分析了钢铁流程数据的特点,指出钢铁大数据呈哑铃型结构;针对现行多级架构的弊端,提出大数据-小应用扁平信息化架构;设计了时序、业务、非结构三类数据的统一管理平台结构;开发了包含引擎和驱动两部分的软网关(DataX);开发了具有异常过滤、多种存档类型、高效读写引擎以及缓存优化机制的时序数据库软件,通过轧钢过程监控、能源数据案例对比分析,缓存优化后数据查询响应速度提高了50~60倍。(2)提出了物质流、能量流的信息表征模型,分别对钢铁生产流程物质流网络、能量流网络进行了信息化解析,证明了模型的表征能力。给出了利用该模型进行数据组织和指标计算的方法,回答了哑铃型大数据的逻辑组织问题。并且,针对时空匹配问题,将空间的表征从节点空间进一步细化到物料空间,提出了物料空间信息描述方法。(3)结合某工具钢生产流程,给出了基于物质流的信息表征模型构建生产管理系统的方法;对生产计划、生产实绩、物流跟踪、全流程质量管理等关键业务运用该模型的实现方式进行了展开说明,仅用过程、节点、物料、变迁几个对象和一种业务画面就实现了炼钢、锻钢、连轧、成品的生产实绩信息贯通,并配置出了43种查询场景。(4)结合某大型钢铁企业,给出了基于能量流的信息表征模型构建能源管理系统的方法,帮助该钢厂在2016年实现了吨钢能耗下降7公斤标煤、能源成本下降7.6亿元;提出了基于工况组合的介质不平衡量预测方法,建立了多介质多时段能源优化调度模型,在保证生产安全的前提下,消除了煤气放散,优化了煤气的分配,保证了蒸汽的产生量,发电增加了103.8万kWh,实现了效益最大化。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/94104a/202003/7101268794.html</t>
+  </si>
+  <si>
+    <t>早期心肌缺血大鼠心肌中 BNP 的时序性表达</t>
+  </si>
+  <si>
+    <t>翟利琴， 郭相杰， 靳茜茜， 刘明哲， 郭华林， 高彩荣 - 山西医科大学学报, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 及蛋白时序性表达。方法在GEO数据库中检索到大鼠急性心肌缺血基因表达谱数据GSE4648,
+分析并设计实验验证。66只10-12周龄雄性SD大鼠分为对照组(n=6)、过敏性猝死组(n=6)、假手术组(
+n=6)及早期心肌缺血组(n=48)。早期心肌缺血组结扎左冠状动脉前降支造成急性心肌缺血模型 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=zxUS6dXVyR1VHtCVKZTWHF0M3hHR3p2Z3JEbMVVNlZHcR9kaaZWeTJkVstkQYh0cytETsNXVmdGVN1kQ0ZHdBtUMz0Ee1EGOaZVaPZ3U4N1ZwoXN5I3RBhmRyljcIB1YuJjMz8GRBBTO4QUWshVSzglRxUUbCNET&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>早期心肌缺血大鼠心肌中BNP的时序性表达</t>
+  </si>
+  <si>
+    <t>目的观察大鼠缺血心肌组织中BNP m RNA及蛋白时序性表达。方法在GEO数据库中检索到大鼠急性心肌缺血基因表达谱数据GSE4648,分析并设计实验验证。66只10-12周龄雄性SD大鼠分为对照组(n=6)、过敏性猝死组(n=6)、假手术组(n=6)及早期心肌缺血组(n=48)。早期心肌缺血组结扎左冠状动脉前降支造成急性心肌缺血模型,分别于造模成功后0. 5,1,2,4,8,12,24,48 h脱臼处死大鼠,取左心室前壁缺血区心肌。假手术组缝合线穿过左心室前壁心肌组织,而不结扎冠状动脉,脱臼处死大鼠,取左心室前壁心肌组织。过敏性猝死组大鼠尾静脉注射鸡卵清蛋白诱导过敏性猝死模型,猝死后取左心室前壁心肌组织。对照组常规饲养1周后脱臼处死,取左心室前壁心肌。应用q RT-PCR、Western blot及免疫组化法检测所取心肌BNP m RNA及蛋白表达情况。结果 GSE4648基因表达谱数据显示大鼠心肌缺血4 h时荧光信号强度开始升高,缺血24 h荧光信号达到最强,缺血48 h荧光信号开始减弱。验证实验显示,与对照组相比,大鼠心肌缺血2 h时,缺血区心肌BNP m RNA开始升高(P &lt;0. 05),并于缺血24 h时达到峰值(P &lt;0. 01),缺血48 h时下降,但仍高于对照组(P &lt;0. 01)。与对照组相比,大鼠心肌缺血4 h时,BNP蛋白表达开始上升(P &lt;0. 05),在缺血12 h和24 h时达到最高峰(P &lt;0. 01),缺血48 h时下降,但仍高于对照组(P &lt;0. 05)。大鼠心肌缺血4 h时,缺血区心肌免疫组化出现弱阳性(P &lt;0. 05),之后逐渐增强,缺血24 h时达到强阳性(P &lt;0. 01),缺血48 h阳性减弱,但仍高于对照组(P &lt;0. 05)。对照组、假手术组及过敏性猝死组三组间心肌BNP m RNA及蛋白表达水平差异无统计学意义(P&gt; 0. 05)。结论早期心肌缺血时存在BNP m RNA升高;检测BNP m RNA可能对鉴别冠状动脉性猝死和过敏性休克死亡有帮助。</t>
+  </si>
+  <si>
+    <t>http://www.infocomm-journal.com/dxkx/CN/10.11959/j.issn.1000-0801.2018037</t>
+  </si>
+  <si>
+    <t>电信运营商大数据基础能力建设与实践</t>
+  </si>
+  <si>
+    <t>汤劲松， 蔡韵， 王晓亮， 傅一平， 汤潇巍， 陈永刚… - 电信 …, 2018 - infocomm-journal.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 电信科学2018 年第1 期 Hadoop、MPP、流处理和内存数据库等平台，集 … 通话时序数据：通话的频次、
+时序、时长 … 汤劲松（1968−），男，博士，中国移动通 信集团浙江有限公司高级工程师、大数据
+中心经理，主要研究方向为大数据模型、 大数据行业研究、运营商大数据挖掘及商 业变现等 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=HaJxmRQR3bVFUSShUTl1mS0MVMW92MPdmcMtGR192auRWNWBHOX9ybUNjShlTYKdFR4t0UDhVQIlkT=0TU3one3EXRoV3akhUa5tyKvp0duh0LPJHRrlHa38kNIhzKv5WUTJFRwoUcTR3M5IHNVNXcSV0ULJ&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>以中国移动通信集团浙江有限公司(以下简称浙江移动)为例,从平台、数据和技术3方面阐述了运营商的大数据能力,并结合企业实践和探索,分享了浙江移动在移动信用评分和智能选址产品的案例。</t>
+  </si>
+  <si>
+    <t>http://info.pharm.bucm.edu.cn/docs/2020-03/20200304130720391304.pdf</t>
+  </si>
+  <si>
+    <t>中药工业大数据关键技术与应用</t>
+  </si>
+  <si>
+    <t>徐冰， 史新元， 罗赣， 林兆洲， 孙飞， 戴胜云… - 中国中药 …, 2020 - info.pharm.bucm.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 即监督学习。主要用于寻 找响应变量和自变量之间的函数关系，对新的输入做出预 测。
+常用方法有回归分析，时序分析，神经网络( ANN … 能设计方法［92］，包括: ①从iTCM 数据库中选择 …
+降低原辅料质 量波动对片剂质量一致性的影响，提高处方稳健性。 6 总结和展望 中药工业大数据 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=OJHMCRDUGNFVmd0RwhWevVmYWJGR1Q2LmVkcmhlTNdEc1clZxp1YKpUaMx0KQZEeTpFe5BFcrdXZlhXYYFDVxV2QV5kT4Ind6RlclFzZEFjMxhlZhtCZKlXb0R3cDpkYBBHd5JnVoNjSXBzc0oUbQx0YxUlQwATS&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>在中药制造由工业2.0向更高水平迈进的过程中,部分信息化和数字化基础较好的企业已积累了轻量级工业大数据,成为企业资产的一部分。为促进中药工业大数据的应用,该研究针对当前中药制造过程中存在的Sigma差距和知识匮乏等问题,提出了以价值创造为导向的中药工业大数据三层架构设计原理,即数据集成层、数据分析层和应用场景层。在数据集成层,总结了以传感器为基础的中药关键质量属性感知关键技术。在数据分析层,提出了由模型构建、验证、配置和维护组成的模型生命周期,介绍了智慧中药系统(iTCM)算法库和模型库。针对中药制造过程质量传递结构特点,开发了"分块-集成"建模,递进建模和路径建模等系统建模关键技术;针对中药制造过程高度专业性,提出"数据+机制"双重驱动的高阶智能建模关键技术。最后结合中药注射剂、中药口服固体制剂和中药配方颗粒生产应用场景和需求,介绍了基于工业大数据的中药生产工艺诊断、质量传递规律解析、实时放行检验和制剂处方智能设计典型案例。对中药工业大数据这一可再生资源的利用,将有效促进中药制造知识积累和质量效益提升,为实现中药制造智能化奠定基础。</t>
+  </si>
+  <si>
+    <t>https://www.geirina.net/paper/%E5%9F%BA%E4%BA%8E%E2%80%9C%E7%94%B5%E7%BD%91%E4%B8%80%E5%BC%A0%E5%9B%BE%E2%80%9D%E7%9A%84%E6%97%B6%E7%A9%BA%E6%95%B0%E6%8D%AE%E7%AE%A1%E7%90%86%E7%B3%BB%E7%BB%9F.pdf</t>
+  </si>
+  <si>
+    <t>基于 “电网一张图” 的时空数据管理系统</t>
+  </si>
+  <si>
+    <t>路轶， 汤亚宸， 刘广一， 张华敏， 范宏， 韩海韵 - Distribution &amp; Utilization, 2019 - geirina.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 大规模时间序列数据扫描与查询等针对包含时间戳 … 电网的时空变化，形成电网时空演化图，因此，
+图模型 在一段时间内的演化可以认为是一组图快照的集合。时 序数据库用于存储快照的集合，
+而快照在时间点中具体 可以呈现为一组节点和一组边的集合，因此，对于时序 数据库快照的 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=HVqhFUWFmNOJlTaZ3S6JFO5V3TwUkZGl2K0h0LvolT3MlU1JGS0EmUz9WarxETkxEeLNmZHxWQVNkS=0zd592UwJjZ3plWqhEeh5maZlGVVFkYFZXR48UTyglZ1QVV3h1ckNUatZUexkXTJZGO1IWYnF3LxE&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>基于</t>
+  </si>
+  <si>
+    <t>为解决目前信息系统建设过程中出现的专业壁垒、跨专业流程不贯通、数据共享实时性不强、数据价值未充分挖掘等难题,国家电网有限公司提出要通过"数据一个源、电网一张图、业务一条线"的技术手段,实现泛在电力物联网的建设目标,其中,"电网一张图"正是消除数据孤岛、实现数据全面融合的核心。基于图数据库和图计算技术,文章提出了基于"电网一张图"时空数据管理系统的建设方案。利用图数据结构与实际电网在结构上的一致性、表达上的自然性、展示上的直观性的特点,通过将电网的整体拓扑连接,包括发、输、变、配、用所有环节内部的拓扑结构及其之间的连接关系的电网空间数据融合,打通不同电压等级电网之间的拓扑连接,形成"电网拓扑一张图"。同时,将电网运行、监测、运维、生产和营销等各个业务部门中不同管理角度、不同组织方式、不同时间与空间维度、不同量级的数据进行一体化融合,形成"电网一张图",构建时空数据管理系统,为泛在电力物联网的建设目标奠定基础。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/95838a/202001/7101225532.html</t>
+  </si>
+  <si>
+    <t>基于逻辑时序的选线装置和馈线自动化终端配合风险研究</t>
+  </si>
+  <si>
+    <t>桂海涛 - 广西电力, 2020 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 【关键词】, 小电流接地选线装置 馈线自动化终端 逻辑时序 配合原则. 【出处】, 《广西电力》2020年第
+1期 23-25页共4页. 【收录】, 中文科技期刊数据库 … 同期文献 广西电力 《广西电力》 Guangxi Electric
+Power 2020年第1期 期刊详细信息. 基于统一数据模型的广西配用电大数据分析平台 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=jRmtkWJFXa2wGb3cjb3QkRzMGUGZTN3RmTYpERT90cwgEe3ZjbZdETaVTd4siWjpXUSR0YnJVRGZ2Z=0DOwo1dwkUQKZkWq9iWuRkMrEmWhdWdkBDU1lkdwd1d5dVezkDV5w2RaxmTXxmTEdVNHR0ZCx0bsB&amp;tablename=CJFDLAST2020&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>在复杂接地故障下,新型小电流接地选线装置选线轮切逻辑与就地型馈线自动化终端逻辑时序失配,导致故障线路断路器多次分合闸。针对此问题,本文基于小电流接地选线装置和馈线自动化终端的技术原理,结合事故案例对选线装置与馈线终端失配风险等进行分析,提出小电流接地选线装置与馈线自动化终端配合原则,并在部分地市局进行试点应用。应用结果表明,所提原则提升了选线装置与馈线终端的适配能力。</t>
+  </si>
+  <si>
+    <t>http://www.cjig.cn/html/jig/2019/5/20190514.htm</t>
+  </si>
+  <si>
+    <t>MAP-Vis: 基于 MAP 模型的时空点状大数据可视化方案</t>
+  </si>
+  <si>
+    <t>谢冲， 关雪峰， 周炜轩， 吴华意 - 2019 - cjig.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 作简单的统计操作。客户端主要负责对从后台获取的热图数据、时序数据和属性 … MAP组织模型能够
+同时考虑时间和空间维度，兼顾属性信息，三者逐级聚合汇聚，适应时空大数据快速高可视化。
+设计的开源可视化框架(MAP-Vis)以Spark作为预处理工具，以分布式HBase数据库作为存储 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=xQ1U3YVS6plYEVEN2pFTKxEaLx2bZZGcqhEezkTRVVmS0lHe39kVCVUd5B3bElDdyl0YyEHZhVURrB3cIFDath0UzJmWFlXc0lERGlVRXRVVYR1Q3MEbuFHU0gmdTNjZUh0UIJleidlTmtkSEJzZ0tGUs9mM0JVZ&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>MAP-Vis:基于MAP模型的时空点状大数据可视化方案</t>
+  </si>
+  <si>
+    <t>目的对于大数据挖掘,可视分析是一种非常重要的研究手段,有助于快速、直观地理解分析大数据蕴含的价值信息。但因其海量、时空、高维等特征,大数据可视化存在内存消耗大、渲染延迟高、可视效果差等问题。针对上述问题,以海量时空点数据为例,采用预处理可视化方案,设计并实现了一套高可扩展的分布式可视分析框架。方法借鉴瓦片金字塔模型提出一种多维度聚合金字塔模型(MAP),将瓦片金字塔的2D空间层级聚合扩展到时间/空间/属性多维度,同时支持时间、空间、属性的多维层级聚合。进而以Spark集群作为并行预处理工具,以HBase分布式数据库持久化存储MAP模型数据,实现了一套开源的分布式可视化框架(MAP-Vis)。结果以纽约出租车数据集为例,本研究实验证明能够支持时间/空间/属性多尺度、多维度联动的交互式可视化,同时具有高可扩展的预处理能力和存储能力。结论在分布式处理能力支持下,系统能实现亚秒级的查询响应,达到良好的交互式可视化效果,证明MAP-Vis是一种有效的大数据交互式可视化方案。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/91845x/201910/7002977846.html</t>
+  </si>
+  <si>
+    <t>基于用电大数据的台户关系识别方法研究</t>
+  </si>
+  <si>
+    <t>黄旭， 王伟恒， 吴双， 胡伟 - 供用电, 2019 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 您的位置：网站首页 &gt; 《中文科技期刊数据库》 &gt; 工程技术 &gt; 电气工程 … 单纯依靠人工去识别台户
+关系不仅费时费力而且效果不佳,同时需要成本高昂的专用设备。为解决上述问题,文章提出一种基于
+用电大数据的台 … 首先搭建台区模型,并采集和预处理台区各用户的海量电压时序数据作为观测 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=3Z3E0dspWZ5lTeslFdOJESBJFbndzcwJkYi1mS2MmQaVzatJnSlZVcwtkaYlkVnRlWBJXWPpWemRHb=0TTGVlMsp2Z5FUMLRmNzpFb3UjRMF3N4djaVZ0MpFXY01GSJJVM5hFdzInYIpkcDpGaRtWO0U1T2k&amp;tablename=CJFDLAST2019&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>在电网的低压台区,在用户接线改动或者为了负荷均衡分配而进行线路改造后,由于信息更新不及时,经常导致用户进线端与集中器归属关系记录不准确、台户关系与实际不符等问题。单纯依靠人工去识别台户关系不仅费时费力而且效果不佳,同时需要成本高昂的专用设备。为解决上述问题,文章提出一种基于用电大数据的台户关系智能识别方法。首先搭建台区模型,并采集和预处理台区各用户的海量电压时序数据作为观测变量;然后采用FastICA技术对处理后的数据进行独立成分分析与特征提取,从而获得用于估计观测变量的一系列相互独立的随机变量和混合矩阵;最后利用K均值聚类的方法对特征提取后数据进行聚类分析,从而实现台户关系识别。同时文章对电压数据采样精度和数据量对结果的影响进行了分析比较。仿真算例表明,所提方法能够在保证精度的情况下仅采用电压时序数据就实现台户关系的智能识别。</t>
+  </si>
+  <si>
+    <t>http://ykdz.briug.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=3776</t>
+  </si>
+  <si>
+    <t>大数据在高放废物地质处置中的应用研究前瞻</t>
+  </si>
+  <si>
+    <t>赵永安， 高敏， 黄树桃， 王鹏 - 铀矿地质, 2017 - ykdz.briug.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 模型，应用不同时 序气象与环境遥感数据，对场址因风化和冲 积产生的变化进行研究。通过大数据
+分析， 推测未来自然条件变化趋势或自定义变化参 数，在４Ｄ空间（地理空间与时序）上模拟自
+然条件变化 … ３．５．３ 场址深部三维地质环境模拟研究 基于钻孔专题数据库（编录、测井、高 光谱 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=ldTJWW4AjYZxEd0YXWaZEdStWO4QHTv9iaQBHbiZzQyUEOGRTVkNkdTxUVp1Eb0hkVwMEbxRUb0p0Y=0TU4M0R0c2YlV1dLtmM4hUcRVWTyc1Y2IkelxEaO1kMNp3LkxmZ5gFT6RGM2V3VGdEaVh3T0U0K1B&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>围绕当前及未来大数据在我国高放废物地质处置领域中的应用研究,文章旨在探讨其研究方向或内容,从而提出前瞻性的认识。具体内容包括场址无线传感器网络应用研究、现有数据库的扩展、大数据驱动的场址评价体系研究、云平台研发及大数据分析模拟研究等。</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com/qk/83634c/201730/7000363806.html</t>
+  </si>
+  <si>
+    <t>基于月度数据构建我国进出口贸易额的时序模型</t>
+  </si>
+  <si>
+    <t>张丽影 - 现代商业, 2017 - cqvip.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 基于月度数据构建我国进出口贸易额的时序模型 … 【收录】, 中文科技期刊数据库 … 
+基于顾客让渡价值的网红营销策略分析; 基于互联网+的古镇旅游平台建设研究; 基于大数据环境下
+电商精准营销策略研究. 网站首页 | 关于我们 | 联系我们 | 产品服务 | 广告服务 | 版权声明 | 网站联盟 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=T9idNlzbXdFTzhTQwAlW6V0Rn50aT5Wbld1ZwZ3QUVzYqdDbUFGaMlHTvczaHZFW19mMwplUMhGWvh0aHJ2UrhzUPhzUpNVVKV1UoRnN5VjZjVWeshGUspEaztiTLhzS2lWbzUWW4tCR5MlZplkMxZXbPJkShJ2b&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>1978年我国进出口贸易额仅206.4亿美元,占世界贸易总额的2%,截至2015年,我国进出口贸易额已高达396322.9亿美元,成为世界第一贸易大国,进出口贸易已成为我国经济增长的关键推动力。本文基于1995-2015年我国进出口贸易额,建立了SARIMA(2,1,0)(2,1,0)模型并进行预测,该模型拟合率高达93%。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-10559-1018887489.htm</t>
+  </si>
+  <si>
+    <t>非平衡时序数据的动态时间规整过采样方法研究</t>
+  </si>
+  <si>
+    <t>李凤 - 2018 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 李凤. 【摘要】：时间序列分类问题广泛存在于动作识别、语音识别、异常检测、医学疾病检测等领域中。
+在这类分类问题中,常常出现数据非平衡问题,大多数的数据挖掘算法对于数据 … k近邻中的少数类样本
+之间按修正权重生成新的时序样本。选择UCR时序数据库中的12个非平衡数据集,使用 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=xAHNDlVYB5GV2VENCVkdVhFMRpWSrFWQl50SvckaWpXUWJTOr40bGBHNY5WOhpVMoBjTnFUdRdUexc2aqN2M2k0QlpEVUVkc90zdSZHewkTOSxmY4olS2EGM4kFOn52SZ12YUpEcWdmROxmS4kkdkdTZSZVZzg1a6dlcYJXVKN2N1cjVBNVd6d1QW1UcH9CV&amp;tablename=CMFD201901&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>时间序列分类问题广泛存在于动作识别、语音识别、异常检测、医学疾病检测等领域中。在这类分类问题中,常常出现数据非平衡问题,大多数的数据挖掘算法对于数据类别相对平衡的假设前提无法满足,导致最终的学习效果不理想。并且,时序数据具有高维性、允许时间上的位置偏移和尺度缩放、存在时序上动态关联等有别于横截面数据的特点,已有的非平衡横截面数据的处理方法还不能直接应用于非平衡时间序列的处理过程中。本文考虑到时序数据的特点,提出了一种针对非平衡时序数据的过采样方法,在动态时间规整(DTW)定义的度量空间下,进行安全集与噪声集划分、权值修正、近邻选择、路径插值,在安全集中每个少数类样本与其k近邻中的少数类样本之间按修正权重生成新的时序样本。选择UCR时序数据库中的12个非平衡数据集,使用高斯过程分类模型,检验过采样方法效果。实证分析结果表明:(1)本文的方法(SDTW)生成的新样本较ROS、SMOTE、BSMOTE等方法均匀,两类样本的边界清晰,尽量保持原样本的分布,在近邻选择上仅选择同类,克服了SMOTE近邻选择的盲目性,且位于噪声集的少数类周围不生成人工样本,有效防止了引入额外的噪声。(2)对非平衡时序数据进行处理,提高了GPC的分类效果;SDTW在准确率、F值、G均值、AUC等各个评估指标上表现良好,优于ADASYN、SMOTE、BSMOTE等经典的非平衡横截面数据处理方法;Friedman检验显示各个方法的性能存在差异,SDTW在准确率、F值、G均值、AUC上均显著优于其他方法。(3)在不同非平衡率的数据集上,SDTW在各个评估指标上亦领先其他方法。通过实证分析证实了SDTW在处理非平衡时序数据上的有效性,可以应用到现实非平衡时序分类任务。</t>
+  </si>
+  <si>
+    <t>http://cdmd.cnki.com.cn/Article/CDMD-11412-1017211074.htm</t>
+  </si>
+  <si>
+    <t>基于时标量测稳态数据的智能电网调控主站应用研究</t>
+  </si>
+  <si>
+    <t>李亮 - 2017 - cdmd.cnki.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 在以往的数据库中,不管采用哪种方法,都很难实现连续存储时标量测;处理效率低下问题,大规模的
+数据 … 对这些数据进行保存已经不符合当前的需求。时序数据库的集成 … 第一个是对当前的时标量测
+的状态估计进行具体的梳理,将时标量测数据、模型、规则有效地融为一体,实现及时预警的功能 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=0b1UTathHbwgTMTZ1czYHdEFTWZljWVdFduZVMHRWQh5UcVNjdEd1ZSZmczd0Z2hFMql2cwhkRt9kb=0TTsRGUKpkNpJjRZFDbPh1TzoXctFDaspma1IDc4NEVHZVeNVzTTxmU1ZFRz02NrhGZSFzYIxUOJd&amp;tablename=CMFD201801&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>随着电网规模日趋扩大,大运行体系进一步推进,电力系统对供电可靠性和电网安全稳定运行提出了更高的要求,特别是对调控运行人员能够通过远程监控及时发现设备隐患、快速处理事故恢复供电、甚至对电能质量控制的能力提出了更加严峻的考验。作为保障电网安全运行的重要工具,告警系统在电网监控中起了至关重要的功能。然而当前实时的事故异常报文直传的模式下,在发生事故时常常出现扰动变电站设备启动或异常报文刷屏,干扰事故站的事故报文的上送。另外由于目前使用无时标的测量数据,导致监控收到保护动作及开关变位等重要信息与现场保护装置信息有数秒的差值,给调控人员事故判断和梳理事故经过都带来巨大工作量,直接影响调度各项业务的开展。首先,本文提出基于时标量测的电网实时信息进行筛选预警,它可以有效解决电网运行时出现异常时各变电站扰动信息干扰事故变电站信息上传的问题,还可以解决告警方式单一、跳变量测难以及时捕捉的问题。另外,可以将其运用到地区智能电网的调度控制系统当中,将电网的全息历史数据与实时数据进行比较计算,从而实现及时快速的预警。以时标量测为基础的全息事故反演使用,因为获得了时间序列数据库给出的比较强大断面数据访问支持,因此在智能控制主站,就能够对所有的电网事故做出一次全息反演。借助潮流图或者厂站图和有时序的事故报文,可以回溯和分析研究事故发生的详细过程,直观浏览事故发生过程其次,在使用时标量测提高电网相关数据的准确性的同时,也带来大量数据处理的技术难度高的问题,关于展示和存储时标量测的问题,在以往的数据库中,不管采用哪种方法,都很难实现连续存储时标量测;处理效率低下问题,大规模的数据量极大地增加了存储和搜索的难度,让这项工作变得复杂难以操作;借助过去的实时库以及关系数据库对这些数据进行保存已经不符合当前的需求。时序数据库的集成应用,可以实现高精度采样并对过程中的有效时标数量进行记录。最后,本文通过对时标量测的稳态数据在智能电网调控主站的应用分析,分别从两个方面进行了系统的研究。第一个是对当前的时标量测的状态估计进行具体的梳理,将时标量测数据、模型、规则有效地融为一体,实现及时预警的功能。第二个是依据时间序列数据库为基础的开放式综合数据平台的应用分析。</t>
+  </si>
+  <si>
+    <t>http://tb.sinomaps.com/EN/article/downloadArticleFile.do?attachType=PDF&amp;id=2575</t>
+  </si>
+  <si>
+    <t>面向智慧城市的大数据中心建设方案设计</t>
+  </si>
+  <si>
+    <t>孔令礼 - 测绘通报, 2017 - tb.sinomaps.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 如气象是时序数据、兴趣点是空间点数据、道路是空 间图数据、人的移动是轨迹数据(时间 …
+表示ꎬ精度为毫秒ꎮ 智慧城市中的业务数据属于结构化数据ꎬ具备 大数据的特性ꎬ
+其应用场景中经常存在批量读取与 … 适合使用列式数据模型进行存储ꎮ 现有城市信息化成果多以关系 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=lZs12T2NDexMEN0t2cKFlaK5WVy9mQyE3KNRnZsl2VxVnM1M0MvpUZT9mMsRWOHJ3QKhmSqJUdClXY=0zY0FENyQ2QwUzS180RWZWU4E3aRpXTi9iW3A1Lx9UOvV2QspkaNZEa0V2aTh1T1p2dqhVVygETJR&amp;tablename=CJFDLAST2017&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>分析了智慧城市大数据的分类与特性,基于分布式存储与云计算技术设计了智慧城市数据模型,该模型能够高效地组织存储地理数据、业务数据、实时数据等智慧城市的关键数据组成部分,采用智慧城市数据模型搭建了智慧城市大数据中心的建设框架。</t>
+  </si>
+  <si>
+    <t>http://zhjbkz.ahmu.edu.cn/UploadFile/Issue/otjrtnrp.pdf</t>
+  </si>
+  <si>
+    <t>基于时空大数据的甲型肝炎发病率分布特征分析及预测模型</t>
+  </si>
+  <si>
+    <t>朱佳佳， 胡登利， 洪秀琴， 查文婷… - Chin J Dis Control …, 2018 - zhjbkz.ahmu.edu.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 图。 1． 2 研究方法 1． 2． 1 全国甲肝疫情空间分布采用Excel 2010 建立数据库，计算各省逐年发病率、
+全国逐月发病率 … ACF 图和PACF 图，此时的时序图已趋于平稳，见图 3。95 … 和青少年等群体占有很
+大比例［9-10］，因此了解我国 甲肝发病的重点区域对于甲肝的防治工作具有重要 意义 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=TT5pUOu1GdI9yK1kUUwdEdMBTQJlHaCVHRjh1aGRWYVJzLTR1TRhVNhV0dYVkbrV2UaFXUHZ1bvJlS=0TTX1WSxlnY4RTWuhUYq9CV5sUNQBDU2QzZmRndzNmVnZ2UEp3Y3p2RQVDVNN2VI5UcwonM000bVJ&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>目的了解我国甲型病毒性肝炎(以下简称甲肝)发病率在时间和空间上的分布特征,探讨乘积季节模型在甲肝发病率预测中的可行性。方法收集我国2006-2017年甲肝发病数据和人口学资料,利用MapInfo11. 0绘制甲肝发病率时空分布柱状图;并采用SPSS 23. 0对2006-2016年数据建立自回归移动平均模型(autoregressive integrated moving average model,ARIMA),选取2017年数据评价模型的预测效果。结果 2006-2016年,全国共报告甲肝病例430 962例,发病率逐年递减,且西部地区明显高于东部地区。经数据平稳化处理、定阶、参数估计与模型检验后建立了最优模型ARIMA(0,2,2)(0,1,1)12。且对2017年1～12月的预测值和实际发病率基本吻合,相对误差在2. 0%～39. 7%之间。结论我国甲肝发病率逐年递减且东西部地区甲肝发病率表现出明显差异。ARIMA乘积季节模型对我国甲肝发病率具有很好的短期预测能力。</t>
+  </si>
+  <si>
+    <t>http://manu49.magtech.com.cn/Jwk3_gdgy/ggxb/EN/abstract/abstract2946.shtml</t>
+  </si>
+  <si>
+    <t>金融大数据中条件非相关波动模型的单纯形搜索算法</t>
+  </si>
+  <si>
+    <t>白颉， 姚家进， 张茂军， 李桥兴 - 广东工业大学学报, 2018 - manu49.magtech.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… 在数据库处理方面，李桥兴等[11]提出了大数据基元 的HBase 数据库存储模型，为金融大数据的应用
+提 供了技术手段 … 4 −3 −2 −1 0 1 2 3 4 图1 金融市场收益率时序 Fig.1 Return sequences of financial
+markets 第5 期 白颉，等：金融大数据中条件非相关波动模型的单纯形搜索算法 … 
+</t>
+  </si>
+  <si>
+    <t>https://eng.oversea.cnki.net/kns55/brief/../download.aspx?filename=XarcnQW1kTK9UY0Y0MWFmY1NGMB1WNLx0R4UzcXFnZq9kb4ZXMBdlT3UTZT1WZGhkMJV3cIJ2UBNkR=0TTyVXSCFGMIFHUM9iS0hHWx8UM0hjQp5kTqJFTwhmS4YFRqJ3KFZUd1sGOtJGb4ITbIN0Kx8WcaR&amp;tablename=CJFDLAST2018&amp;dflag=pdfdown</t>
+  </si>
+  <si>
+    <t>针对金融大数据中多维金融资产相关性计算的降维问题,提出了求解条件非相关波动模型的单纯形搜索优化算法.该算法极大地提高了估计参数的速度和精度.为了验证算法的有效性,检验了股票市场、债券市场、基金市场、外汇市场与期货市场的条件非相关性问题.本文的研究方法为金融大数据相关分析提供了新方法.</t>
   </si>
 </sst>
 </file>
@@ -570,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,88 +1657,88 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -684,51 +1746,51 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -736,51 +1798,51 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -788,54 +1850,1302 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" t="s">
+        <v>237</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" t="s">
+        <v>275</v>
+      </c>
+      <c r="G44" t="s">
+        <v>276</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" t="s">
+        <v>281</v>
+      </c>
+      <c r="F45" t="s">
+        <v>282</v>
+      </c>
+      <c r="G45" t="s">
+        <v>283</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" t="s">
+        <v>289</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" t="s">
+        <v>295</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E49" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E50" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" t="s">
+        <v>315</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" t="s">
+        <v>320</v>
+      </c>
+      <c r="F51" t="s">
+        <v>317</v>
+      </c>
+      <c r="G51" t="s">
+        <v>321</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" t="s">
+        <v>327</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" t="s">
+        <v>333</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" t="s">
+        <v>337</v>
+      </c>
+      <c r="E54" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" t="s">
+        <v>339</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" t="s">
+        <v>343</v>
+      </c>
+      <c r="E55" t="s">
+        <v>344</v>
+      </c>
+      <c r="F55" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55" t="s">
+        <v>345</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" t="s">
+        <v>349</v>
+      </c>
+      <c r="E56" t="s">
+        <v>350</v>
+      </c>
+      <c r="F56" t="s">
+        <v>347</v>
+      </c>
+      <c r="G56" t="s">
+        <v>351</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" t="s">
+        <v>355</v>
+      </c>
+      <c r="E57" t="s">
+        <v>356</v>
+      </c>
+      <c r="F57" t="s">
+        <v>353</v>
+      </c>
+      <c r="G57" t="s">
+        <v>357</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>358</v>
+      </c>
+      <c r="B58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C58" t="s">
+        <v>360</v>
+      </c>
+      <c r="D58" t="s">
+        <v>361</v>
+      </c>
+      <c r="E58" t="s">
+        <v>362</v>
+      </c>
+      <c r="F58" t="s">
+        <v>359</v>
+      </c>
+      <c r="G58" t="s">
+        <v>363</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
